--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdrey\Downloads\consolidado.py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32449A2-FA26-48C7-A590-A94C7A544F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2AD5EA-282B-414C-BE6F-16DE2973F3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{59408DAA-07A1-4696-BA8D-B1059D8AEE18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{59408DAA-07A1-4696-BA8D-B1059D8AEE18}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSOLIDADO" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7436" uniqueCount="1833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7456" uniqueCount="1833">
   <si>
     <t>z</t>
   </si>
@@ -7034,7 +7034,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7427,63 +7427,6 @@
     <xf numFmtId="0" fontId="3" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7609,6 +7552,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -7620,6 +7623,45 @@
   <dxfs count="16">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -7629,16 +7671,16 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="Aptos Narrow"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -8046,45 +8088,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -8094,16 +8097,16 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <name val="Aptos Narrow"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -10413,20 +10416,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECC3FF38-AA98-4A8E-B708-0BE27D554796}" name="Tabla5" displayName="Tabla5" ref="A2:L44" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECC3FF38-AA98-4A8E-B708-0BE27D554796}" name="Tabla5" displayName="Tabla5" ref="A2:L44" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A2:L44" xr:uid="{ECC3FF38-AA98-4A8E-B708-0BE27D554796}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{70458AA9-E94C-42F2-BC6C-8B6FF1D02017}" name="z" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{70458AA9-E94C-42F2-BC6C-8B6FF1D02017}" name="z" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{22E8F9D0-F94D-4D3F-B372-EFF2C9124679}" name="Reporte Solicitado"/>
-    <tableColumn id="3" xr3:uid="{731A0CAB-1411-431D-BAE5-64E92F05F63E}" name="Columna1" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{B71CD41D-95BB-4B2A-AD5D-3BAD953092A7}" name="Aplicativo" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C015BE9C-981C-469F-90F1-D2441C65F078}" name="Ruta" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{2B033740-4EA5-419C-9F67-437465806216}" name="Producto o Servicio" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{8944F544-BD50-4BE5-88E5-38626CCF9D6A}" name="Procesos " dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{08689068-9571-492D-BC42-9F3596A7987C}" name="Envio a proceso" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{60DC4724-E924-4E05-A41E-867131F81600}" name="Funcionario negocio" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{37B23B53-B834-4511-BC94-47BBE7FBE019}" name="ENLACE" dataDxfId="2" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="11" xr3:uid="{8358A6F6-EC0A-4BBF-A799-27D8ADC515C1}" name="SI APLICA" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{731A0CAB-1411-431D-BAE5-64E92F05F63E}" name="Columna1" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{B71CD41D-95BB-4B2A-AD5D-3BAD953092A7}" name="Aplicativo" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{C015BE9C-981C-469F-90F1-D2441C65F078}" name="Ruta" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{2B033740-4EA5-419C-9F67-437465806216}" name="Producto o Servicio" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{8944F544-BD50-4BE5-88E5-38626CCF9D6A}" name="Procesos " dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{08689068-9571-492D-BC42-9F3596A7987C}" name="Envio a proceso" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{60DC4724-E924-4E05-A41E-867131F81600}" name="Funcionario negocio" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{37B23B53-B834-4511-BC94-47BBE7FBE019}" name="ENLACE" dataDxfId="5" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="11" xr3:uid="{8358A6F6-EC0A-4BBF-A799-27D8ADC515C1}" name="SI APLICA" dataDxfId="4"/>
     <tableColumn id="12" xr3:uid="{CFDD8C20-AA29-463C-9260-BD6690A508A2}" name="Observaciones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10434,7 +10437,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{85609B69-83B8-4819-89DF-A669349D5478}" name="Tabla2" displayName="Tabla2" ref="A1:AP8" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{85609B69-83B8-4819-89DF-A669349D5478}" name="Tabla2" displayName="Tabla2" ref="A1:AP8" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:AP8" xr:uid="{85609B69-83B8-4819-89DF-A669349D5478}"/>
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{05EA7000-AECC-4D14-86C7-834EDDCA3E68}" name="CODIGO PRODUCTO"/>
@@ -10478,7 +10481,7 @@
     <tableColumn id="42" xr3:uid="{6C5531E4-B504-4B67-80E8-54E45A25543D}" name="SERIE 2"/>
     <tableColumn id="43" xr3:uid="{CA26265F-753A-4850-9491-AECE59EB3686}" name="CODIGO BARRAS (LOTERÍAS-PROMOCIONALES-OTROS DISTRIBUIDORES)"/>
     <tableColumn id="44" xr3:uid="{E3F25634-A7EB-41F7-9BA0-A362896BCE16}" name="CODIGO DE SEGURIDAD14"/>
-    <tableColumn id="45" xr3:uid="{90894396-6844-447E-88B3-9CE68E3A5365}" name="CODIGO DE SEGURIDAD2" dataDxfId="12"/>
+    <tableColumn id="45" xr3:uid="{90894396-6844-447E-88B3-9CE68E3A5365}" name="CODIGO DE SEGURIDAD2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10897,8 +10900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7044E3A-7917-42E6-B834-4B816E36B4E9}">
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:K122"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15" customHeight="1"/>
@@ -17442,10 +17445,10 @@
       <c r="D2">
         <v>3041181550</v>
       </c>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="247" t="s">
         <v>1706</v>
       </c>
-      <c r="F2" s="204"/>
+      <c r="F2" s="247"/>
       <c r="G2">
         <v>59900</v>
       </c>
@@ -17705,11 +17708,11 @@
       <c r="K2" s="17" t="s">
         <v>1720</v>
       </c>
-      <c r="L2" s="205" t="s">
+      <c r="L2" s="248" t="s">
         <v>1721</v>
       </c>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
+      <c r="M2" s="248"/>
+      <c r="N2" s="248"/>
       <c r="O2" s="17">
         <v>10240220203</v>
       </c>
@@ -19587,12 +19590,12 @@
       <c r="L6" t="s">
         <v>1699</v>
       </c>
-      <c r="M6" s="208" t="s">
+      <c r="M6" s="251" t="s">
         <v>1799</v>
       </c>
-      <c r="N6" s="208"/>
-      <c r="O6" s="208"/>
-      <c r="P6" s="208"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="251"/>
+      <c r="P6" s="251"/>
       <c r="Q6">
         <v>1</v>
       </c>
@@ -19634,10 +19637,10 @@
       <c r="L7" t="s">
         <v>1699</v>
       </c>
-      <c r="M7" s="208"/>
-      <c r="N7" s="208"/>
-      <c r="O7" s="208"/>
-      <c r="P7" s="208"/>
+      <c r="M7" s="251"/>
+      <c r="N7" s="251"/>
+      <c r="O7" s="251"/>
+      <c r="P7" s="251"/>
       <c r="Q7">
         <v>1</v>
       </c>
@@ -19743,7 +19746,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="57">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="249" t="s">
         <v>1801</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -19751,7 +19754,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="57">
-      <c r="A14" s="207"/>
+      <c r="A14" s="250"/>
       <c r="B14" s="12" t="s">
         <v>1803</v>
       </c>
@@ -23836,10 +23839,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -23859,866 +23862,866 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.5">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="190" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="249" t="s">
+      <c r="B2" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="249" t="s">
+      <c r="C2" s="230" t="s">
         <v>1832</v>
       </c>
-      <c r="D2" s="249" t="s">
+      <c r="D2" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="249" t="s">
+      <c r="E2" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="249" t="s">
+      <c r="F2" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="249" t="s">
+      <c r="G2" s="230" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="249" t="s">
+      <c r="H2" s="230" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="249" t="s">
+      <c r="I2" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="249" t="s">
+      <c r="J2" s="230" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="249" t="s">
+      <c r="K2" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="249" t="s">
+      <c r="L2" s="230" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.5">
-      <c r="A3" s="236">
+      <c r="A3" s="217">
         <v>21</v>
       </c>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="201" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="219" t="s">
+      <c r="C3" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="219" t="s">
+      <c r="D3" s="200" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="221" t="s">
+      <c r="E3" s="202" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="219" t="s">
+      <c r="F3" s="200" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="219" t="s">
+      <c r="G3" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="219" t="s">
+      <c r="H3" s="200" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="219" t="s">
+      <c r="I3" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="222" t="s">
+      <c r="J3" s="203" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="223" t="s">
+      <c r="K3" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="221" t="s">
+      <c r="L3" s="202" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.5">
-      <c r="A4" s="237">
+      <c r="A4" s="218">
         <v>22</v>
       </c>
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="224" t="s">
+      <c r="C4" s="205" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="224" t="s">
+      <c r="D4" s="205" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="224" t="s">
+      <c r="E4" s="205" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="224" t="s">
+      <c r="F4" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="224" t="s">
+      <c r="G4" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="224" t="s">
+      <c r="H4" s="205" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="224" t="s">
+      <c r="I4" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="225" t="s">
+      <c r="J4" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="226" t="s">
+      <c r="K4" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="242"/>
+      <c r="L4" s="223"/>
     </row>
     <row r="5" spans="1:12" ht="36">
-      <c r="A5" s="236">
+      <c r="A5" s="217">
         <v>23</v>
       </c>
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="200" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="219" t="s">
+      <c r="D5" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="200" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="219" t="s">
+      <c r="F5" s="200" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="219" t="s">
+      <c r="G5" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="219" t="s">
+      <c r="H5" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="219" t="s">
+      <c r="I5" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="222" t="s">
+      <c r="J5" s="203" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="223" t="s">
+      <c r="K5" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="221"/>
+      <c r="L5" s="202"/>
     </row>
     <row r="6" spans="1:12" ht="120">
-      <c r="A6" s="237">
+      <c r="A6" s="218">
         <v>24</v>
       </c>
-      <c r="B6" s="227" t="s">
+      <c r="B6" s="208" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="205" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="205" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="224" t="s">
+      <c r="E6" s="205" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="224" t="s">
+      <c r="F6" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="224" t="s">
+      <c r="G6" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="224" t="s">
+      <c r="H6" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="224" t="s">
+      <c r="I6" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="224" t="s">
+      <c r="J6" s="205" t="s">
         <v>125</v>
       </c>
-      <c r="K6" s="226" t="s">
+      <c r="K6" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="242"/>
+      <c r="L6" s="223"/>
     </row>
     <row r="7" spans="1:12" ht="48">
-      <c r="A7" s="236">
+      <c r="A7" s="217">
         <v>25</v>
       </c>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="201" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="219" t="s">
+      <c r="C7" s="200" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="219" t="s">
+      <c r="D7" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="219" t="s">
+      <c r="E7" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="219" t="s">
+      <c r="F7" s="200" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="219" t="s">
+      <c r="G7" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="219" t="s">
+      <c r="H7" s="200" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="219" t="s">
+      <c r="I7" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="222" t="s">
+      <c r="J7" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="223" t="s">
+      <c r="K7" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="221"/>
+      <c r="L7" s="202"/>
     </row>
     <row r="8" spans="1:12" ht="36">
-      <c r="A8" s="238">
+      <c r="A8" s="219">
         <v>26</v>
       </c>
-      <c r="B8" s="220" t="s">
+      <c r="B8" s="201" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="228" t="s">
+      <c r="C8" s="209" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="228" t="s">
+      <c r="D8" s="209" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="228" t="s">
+      <c r="E8" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="228" t="s">
+      <c r="F8" s="209" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="228" t="s">
+      <c r="G8" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="228" t="s">
+      <c r="H8" s="209" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="228" t="s">
+      <c r="I8" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="229" t="s">
+      <c r="J8" s="210" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="230" t="s">
+      <c r="K8" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="243" t="s">
+      <c r="L8" s="224" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="24">
-      <c r="A9" s="236">
+      <c r="A9" s="217">
         <v>27</v>
       </c>
-      <c r="B9" s="220" t="s">
+      <c r="B9" s="201" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="219" t="s">
+      <c r="C9" s="200" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="219" t="s">
+      <c r="D9" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="219" t="s">
+      <c r="E9" s="200" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="219" t="s">
+      <c r="F9" s="200" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="219" t="s">
+      <c r="G9" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="219" t="s">
+      <c r="H9" s="200" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="219" t="s">
+      <c r="I9" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="222" t="s">
+      <c r="J9" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="223" t="s">
+      <c r="K9" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="221"/>
+      <c r="L9" s="202"/>
     </row>
     <row r="10" spans="1:12" ht="48">
-      <c r="A10" s="237">
+      <c r="A10" s="218">
         <v>28</v>
       </c>
-      <c r="B10" s="220" t="s">
+      <c r="B10" s="201" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="205" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="224" t="s">
+      <c r="E10" s="205" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="224" t="s">
+      <c r="F10" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="224" t="s">
+      <c r="G10" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="224" t="s">
+      <c r="H10" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="224" t="s">
+      <c r="I10" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="225" t="s">
+      <c r="J10" s="206" t="s">
         <v>144</v>
       </c>
-      <c r="K10" s="226" t="s">
+      <c r="K10" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="242"/>
+      <c r="L10" s="223"/>
     </row>
     <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="236">
+      <c r="A11" s="217">
         <v>29</v>
       </c>
-      <c r="B11" s="220" t="s">
+      <c r="B11" s="201" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="200" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="219" t="s">
+      <c r="D11" s="200" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="219" t="s">
+      <c r="E11" s="200" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="219" t="s">
+      <c r="F11" s="200" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="219" t="s">
+      <c r="G11" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="219" t="s">
+      <c r="H11" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="222" t="s">
+      <c r="J11" s="203" t="s">
         <v>148</v>
       </c>
-      <c r="K11" s="223" t="s">
+      <c r="K11" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="221" t="s">
+      <c r="L11" s="202" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="28.5">
-      <c r="A12" s="237">
+      <c r="A12" s="218">
         <v>30</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="201" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="205" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="224" t="s">
+      <c r="D12" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="224" t="s">
+      <c r="E12" s="205" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="224" t="s">
+      <c r="F12" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="224" t="s">
+      <c r="G12" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="224" t="s">
+      <c r="H12" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="224" t="s">
+      <c r="I12" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="225" t="s">
+      <c r="J12" s="206" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="226" t="s">
+      <c r="K12" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="242"/>
+      <c r="L12" s="223"/>
     </row>
     <row r="13" spans="1:12" ht="24">
-      <c r="A13" s="236">
+      <c r="A13" s="217">
         <v>31</v>
       </c>
-      <c r="B13" s="231" t="s">
+      <c r="B13" s="212" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="219" t="s">
+      <c r="C13" s="200" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="219" t="s">
+      <c r="D13" s="200" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="219" t="s">
+      <c r="E13" s="200" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="219" t="s">
+      <c r="F13" s="200" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="219" t="s">
+      <c r="G13" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="219" t="s">
+      <c r="H13" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="219" t="s">
+      <c r="I13" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="222" t="s">
+      <c r="J13" s="203" t="s">
         <v>155</v>
       </c>
-      <c r="K13" s="223" t="s">
+      <c r="K13" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="221"/>
+      <c r="L13" s="202"/>
     </row>
     <row r="14" spans="1:12" ht="28.5">
-      <c r="A14" s="237">
+      <c r="A14" s="218">
         <v>32</v>
       </c>
-      <c r="B14" s="231" t="s">
+      <c r="B14" s="212" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="205" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="224" t="s">
+      <c r="D14" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="224" t="s">
+      <c r="E14" s="205" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="224" t="s">
+      <c r="F14" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="224" t="s">
+      <c r="G14" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="224" t="s">
+      <c r="H14" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="224" t="s">
+      <c r="I14" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="225" t="s">
+      <c r="J14" s="206" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="226" t="s">
+      <c r="K14" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="242"/>
+      <c r="L14" s="223"/>
     </row>
     <row r="15" spans="1:12" ht="24">
-      <c r="A15" s="236">
+      <c r="A15" s="217">
         <v>33</v>
       </c>
-      <c r="B15" s="231" t="s">
+      <c r="B15" s="212" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="219" t="s">
+      <c r="C15" s="200" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="219" t="s">
+      <c r="D15" s="200" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="219" t="s">
+      <c r="E15" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="219" t="s">
+      <c r="F15" s="200" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="219" t="s">
+      <c r="G15" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="219" t="s">
+      <c r="H15" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="222" t="s">
+      <c r="J15" s="203" t="s">
         <v>163</v>
       </c>
-      <c r="K15" s="223" t="s">
+      <c r="K15" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="244"/>
+      <c r="L15" s="225"/>
     </row>
     <row r="16" spans="1:12" ht="85.5">
-      <c r="A16" s="237">
+      <c r="A16" s="218">
         <v>34</v>
       </c>
-      <c r="B16" s="231" t="s">
+      <c r="B16" s="212" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="224" t="s">
+      <c r="C16" s="205" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="224" t="s">
+      <c r="D16" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="224" t="s">
+      <c r="E16" s="205" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="224" t="s">
+      <c r="F16" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="224" t="s">
+      <c r="G16" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="224" t="s">
+      <c r="H16" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="I16" s="224" t="s">
+      <c r="I16" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="225" t="s">
+      <c r="J16" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="226" t="s">
+      <c r="K16" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="242" t="s">
+      <c r="L16" s="223" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="48">
-      <c r="A17" s="236">
+      <c r="A17" s="217">
         <v>35</v>
       </c>
-      <c r="B17" s="231" t="s">
+      <c r="B17" s="212" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="219" t="s">
+      <c r="C17" s="200" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="219" t="s">
+      <c r="D17" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="219" t="s">
+      <c r="E17" s="200" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="219" t="s">
+      <c r="F17" s="200" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="219" t="s">
+      <c r="G17" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="219" t="s">
+      <c r="H17" s="200" t="s">
         <v>172</v>
       </c>
-      <c r="I17" s="219" t="s">
+      <c r="I17" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="222" t="s">
+      <c r="J17" s="203" t="s">
         <v>173</v>
       </c>
-      <c r="K17" s="223" t="s">
+      <c r="K17" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="221"/>
+      <c r="L17" s="202"/>
     </row>
     <row r="18" spans="1:12" ht="48">
-      <c r="A18" s="237">
+      <c r="A18" s="218">
         <v>36</v>
       </c>
-      <c r="B18" s="231" t="s">
+      <c r="B18" s="212" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="224" t="s">
+      <c r="C18" s="205" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="224" t="s">
+      <c r="D18" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="224" t="s">
+      <c r="E18" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="F18" s="224" t="s">
+      <c r="F18" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="224" t="s">
+      <c r="G18" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="224" t="s">
+      <c r="H18" s="205" t="s">
         <v>172</v>
       </c>
-      <c r="I18" s="224" t="s">
+      <c r="I18" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="225" t="s">
+      <c r="J18" s="206" t="s">
         <v>177</v>
       </c>
-      <c r="K18" s="226" t="s">
+      <c r="K18" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="242"/>
+      <c r="L18" s="223"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="236"/>
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="222"/>
-      <c r="K19" s="223"/>
-      <c r="L19" s="221"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="202"/>
     </row>
     <row r="20" spans="1:12" ht="36">
-      <c r="A20" s="238">
+      <c r="A20" s="219">
         <v>41</v>
       </c>
-      <c r="B20" s="231" t="s">
+      <c r="B20" s="212" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="228" t="s">
+      <c r="C20" s="209" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="228" t="s">
+      <c r="D20" s="209" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="228" t="s">
+      <c r="E20" s="209" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="228" t="s">
+      <c r="F20" s="209" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="228" t="s">
+      <c r="G20" s="209" t="s">
         <v>181</v>
       </c>
-      <c r="H20" s="228"/>
-      <c r="I20" s="228" t="s">
+      <c r="H20" s="209"/>
+      <c r="I20" s="209" t="s">
         <v>182</v>
       </c>
-      <c r="J20" s="225" t="s">
+      <c r="J20" s="206" t="s">
         <v>199</v>
       </c>
-      <c r="K20" s="230" t="s">
+      <c r="K20" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="243"/>
+      <c r="L20" s="224"/>
     </row>
     <row r="21" spans="1:12" ht="36">
-      <c r="A21" s="238">
+      <c r="A21" s="219">
         <v>42</v>
       </c>
-      <c r="B21" s="231" t="s">
+      <c r="B21" s="212" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="228" t="s">
+      <c r="C21" s="209" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="228" t="s">
+      <c r="D21" s="209" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="228" t="s">
+      <c r="E21" s="209" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="228" t="s">
+      <c r="F21" s="209" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="228" t="s">
+      <c r="G21" s="209" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="228"/>
-      <c r="I21" s="228" t="s">
+      <c r="H21" s="209"/>
+      <c r="I21" s="209" t="s">
         <v>182</v>
       </c>
-      <c r="J21" s="222" t="s">
+      <c r="J21" s="203" t="s">
         <v>204</v>
       </c>
-      <c r="K21" s="230" t="s">
+      <c r="K21" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="243"/>
+      <c r="L21" s="224"/>
     </row>
     <row r="22" spans="1:12" ht="48">
-      <c r="A22" s="238">
+      <c r="A22" s="219">
         <v>43</v>
       </c>
-      <c r="B22" s="231" t="s">
+      <c r="B22" s="212" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="228" t="s">
+      <c r="C22" s="209" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="228" t="s">
+      <c r="D22" s="209" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="228" t="s">
+      <c r="E22" s="209" t="s">
         <v>207</v>
       </c>
-      <c r="F22" s="228" t="s">
+      <c r="F22" s="209" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="228" t="s">
+      <c r="G22" s="209" t="s">
         <v>203</v>
       </c>
-      <c r="H22" s="228"/>
-      <c r="I22" s="228" t="s">
+      <c r="H22" s="209"/>
+      <c r="I22" s="209" t="s">
         <v>182</v>
       </c>
-      <c r="J22" s="225" t="s">
+      <c r="J22" s="206" t="s">
         <v>208</v>
       </c>
-      <c r="K22" s="230" t="s">
+      <c r="K22" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="243"/>
+      <c r="L22" s="224"/>
     </row>
     <row r="23" spans="1:12" ht="48">
-      <c r="A23" s="238">
+      <c r="A23" s="219">
         <v>44</v>
       </c>
-      <c r="B23" s="231" t="s">
+      <c r="B23" s="212" t="s">
         <v>209</v>
       </c>
-      <c r="C23" s="228" t="s">
+      <c r="C23" s="209" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="228" t="s">
+      <c r="D23" s="209" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="228" t="s">
+      <c r="E23" s="209" t="s">
         <v>211</v>
       </c>
-      <c r="F23" s="228" t="s">
+      <c r="F23" s="209" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="228" t="s">
+      <c r="G23" s="209" t="s">
         <v>203</v>
       </c>
-      <c r="H23" s="228"/>
-      <c r="I23" s="228" t="s">
+      <c r="H23" s="209"/>
+      <c r="I23" s="209" t="s">
         <v>182</v>
       </c>
-      <c r="J23" s="222" t="s">
+      <c r="J23" s="203" t="s">
         <v>212</v>
       </c>
-      <c r="K23" s="230" t="s">
+      <c r="K23" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="243"/>
+      <c r="L23" s="224"/>
     </row>
     <row r="24" spans="1:12" ht="36">
-      <c r="A24" s="238">
+      <c r="A24" s="219">
         <v>45</v>
       </c>
-      <c r="B24" s="231" t="s">
+      <c r="B24" s="212" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="228" t="s">
+      <c r="C24" s="209" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="228" t="s">
+      <c r="D24" s="209" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="228" t="s">
+      <c r="E24" s="209" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="228" t="s">
+      <c r="F24" s="209" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="228" t="s">
+      <c r="G24" s="209" t="s">
         <v>203</v>
       </c>
-      <c r="H24" s="228"/>
-      <c r="I24" s="228" t="s">
+      <c r="H24" s="209"/>
+      <c r="I24" s="209" t="s">
         <v>182</v>
       </c>
-      <c r="J24" s="225" t="s">
+      <c r="J24" s="206" t="s">
         <v>216</v>
       </c>
-      <c r="K24" s="230" t="s">
+      <c r="K24" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="243"/>
+      <c r="L24" s="224"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="236"/>
-      <c r="B25" s="219"/>
-      <c r="C25" s="219"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="222"/>
-      <c r="K25" s="223"/>
-      <c r="L25" s="221"/>
+      <c r="A25" s="217"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="200"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="203"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="202"/>
     </row>
     <row r="26" spans="1:12" ht="24">
-      <c r="A26" s="239">
+      <c r="A26" s="220">
         <v>75</v>
       </c>
-      <c r="B26" s="233" t="s">
+      <c r="B26" s="214" t="s">
         <v>300</v>
       </c>
-      <c r="C26" s="232" t="s">
+      <c r="C26" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="D26" s="232" t="s">
+      <c r="D26" s="213" t="s">
         <v>302</v>
       </c>
-      <c r="E26" s="232" t="s">
+      <c r="E26" s="213" t="s">
         <v>303</v>
       </c>
-      <c r="F26" s="232" t="s">
+      <c r="F26" s="213" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="232" t="s">
+      <c r="G26" s="213" t="s">
         <v>203</v>
       </c>
-      <c r="H26" s="232"/>
-      <c r="I26" s="232" t="s">
+      <c r="H26" s="213"/>
+      <c r="I26" s="213" t="s">
         <v>182</v>
       </c>
-      <c r="J26" s="234" t="s">
+      <c r="J26" s="215" t="s">
         <v>304</v>
       </c>
-      <c r="K26" s="235" t="s">
+      <c r="K26" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="245"/>
+      <c r="L26" s="226"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="240"/>
+      <c r="A27" s="221"/>
       <c r="B27" s="183"/>
       <c r="C27" s="183"/>
       <c r="D27" s="183"/>
@@ -24727,12 +24730,12 @@
       <c r="G27" s="183"/>
       <c r="H27" s="183"/>
       <c r="I27" s="183"/>
-      <c r="J27" s="216"/>
-      <c r="K27" s="217"/>
-      <c r="L27" s="246"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="227"/>
     </row>
     <row r="28" spans="1:12" ht="48">
-      <c r="A28" s="211">
+      <c r="A28" s="192">
         <v>87</v>
       </c>
       <c r="B28" s="187" t="s">
@@ -24763,10 +24766,10 @@
       <c r="K28" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="247"/>
+      <c r="L28" s="228"/>
     </row>
     <row r="29" spans="1:12" ht="48">
-      <c r="A29" s="211">
+      <c r="A29" s="192">
         <v>88</v>
       </c>
       <c r="B29" s="187" t="s">
@@ -24797,24 +24800,24 @@
       <c r="K29" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="247"/>
+      <c r="L29" s="228"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="241"/>
-      <c r="B30" s="218"/>
-      <c r="C30" s="218"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="218"/>
-      <c r="F30" s="218"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="218"/>
-      <c r="J30" s="218"/>
-      <c r="K30" s="218"/>
-      <c r="L30" s="246"/>
+      <c r="A30" s="222"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="199"/>
+      <c r="L30" s="227"/>
     </row>
     <row r="31" spans="1:12" ht="24">
-      <c r="A31" s="211">
+      <c r="A31" s="192">
         <v>106</v>
       </c>
       <c r="B31" s="155" t="s">
@@ -24845,10 +24848,10 @@
       <c r="K31" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="247"/>
+      <c r="L31" s="228"/>
     </row>
     <row r="32" spans="1:12" ht="24">
-      <c r="A32" s="211">
+      <c r="A32" s="192">
         <v>107</v>
       </c>
       <c r="B32" s="155" t="s">
@@ -24879,10 +24882,10 @@
       <c r="K32" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="247"/>
+      <c r="L32" s="228"/>
     </row>
     <row r="33" spans="1:12" ht="48">
-      <c r="A33" s="211">
+      <c r="A33" s="192">
         <v>108</v>
       </c>
       <c r="B33" s="155" t="s">
@@ -24913,10 +24916,10 @@
       <c r="K33" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="247"/>
+      <c r="L33" s="228"/>
     </row>
     <row r="34" spans="1:12" ht="48">
-      <c r="A34" s="211">
+      <c r="A34" s="192">
         <v>109</v>
       </c>
       <c r="B34" s="155" t="s">
@@ -24947,10 +24950,10 @@
       <c r="K34" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="247"/>
+      <c r="L34" s="228"/>
     </row>
     <row r="35" spans="1:12" ht="36">
-      <c r="A35" s="211">
+      <c r="A35" s="192">
         <v>110</v>
       </c>
       <c r="B35" s="155" t="s">
@@ -24981,10 +24984,10 @@
       <c r="K35" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="247"/>
+      <c r="L35" s="228"/>
     </row>
     <row r="36" spans="1:12" ht="48">
-      <c r="A36" s="211">
+      <c r="A36" s="192">
         <v>111</v>
       </c>
       <c r="B36" s="155" t="s">
@@ -25015,10 +25018,10 @@
       <c r="K36" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="247"/>
+      <c r="L36" s="228"/>
     </row>
     <row r="37" spans="1:12" ht="36">
-      <c r="A37" s="211">
+      <c r="A37" s="192">
         <v>112</v>
       </c>
       <c r="B37" s="155" t="s">
@@ -25049,10 +25052,10 @@
       <c r="K37" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="247"/>
+      <c r="L37" s="228"/>
     </row>
     <row r="38" spans="1:12" ht="36">
-      <c r="A38" s="211">
+      <c r="A38" s="192">
         <v>113</v>
       </c>
       <c r="B38" s="155" t="s">
@@ -25083,10 +25086,10 @@
       <c r="K38" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="247"/>
+      <c r="L38" s="228"/>
     </row>
     <row r="39" spans="1:12" ht="36">
-      <c r="A39" s="211">
+      <c r="A39" s="192">
         <v>114</v>
       </c>
       <c r="B39" s="155" t="s">
@@ -25117,10 +25120,10 @@
       <c r="K39" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="247"/>
+      <c r="L39" s="228"/>
     </row>
     <row r="40" spans="1:12" ht="24">
-      <c r="A40" s="211">
+      <c r="A40" s="192">
         <v>115</v>
       </c>
       <c r="B40" s="155" t="s">
@@ -25151,10 +25154,10 @@
       <c r="K40" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="247"/>
+      <c r="L40" s="228"/>
     </row>
     <row r="41" spans="1:12" ht="24">
-      <c r="A41" s="211">
+      <c r="A41" s="192">
         <v>116</v>
       </c>
       <c r="B41" s="155" t="s">
@@ -25185,24 +25188,24 @@
       <c r="K41" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="247"/>
+      <c r="L41" s="228"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="241"/>
-      <c r="B42" s="218"/>
-      <c r="C42" s="218"/>
-      <c r="D42" s="218"/>
-      <c r="E42" s="218"/>
-      <c r="F42" s="218"/>
-      <c r="G42" s="218"/>
-      <c r="H42" s="218"/>
-      <c r="I42" s="218"/>
-      <c r="J42" s="218"/>
-      <c r="K42" s="218"/>
-      <c r="L42" s="246"/>
+      <c r="A42" s="222"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="199"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="199"/>
+      <c r="K42" s="199"/>
+      <c r="L42" s="227"/>
     </row>
     <row r="43" spans="1:12" ht="24">
-      <c r="A43" s="211">
+      <c r="A43" s="192">
         <v>120</v>
       </c>
       <c r="B43" s="189" t="s">
@@ -25233,41 +25236,141 @@
       <c r="K43" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="210"/>
+      <c r="L43" s="191"/>
     </row>
     <row r="44" spans="1:12" ht="36">
-      <c r="A44" s="213">
+      <c r="A44" s="194">
         <v>121</v>
       </c>
-      <c r="B44" s="250" t="s">
+      <c r="B44" s="231" t="s">
         <v>470</v>
       </c>
-      <c r="C44" s="214" t="s">
+      <c r="C44" s="195" t="s">
         <v>471</v>
       </c>
-      <c r="D44" s="214" t="s">
+      <c r="D44" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="214" t="s">
+      <c r="E44" s="195" t="s">
         <v>467</v>
       </c>
-      <c r="F44" s="214" t="s">
+      <c r="F44" s="195" t="s">
         <v>468</v>
       </c>
-      <c r="G44" s="214" t="s">
+      <c r="G44" s="195" t="s">
         <v>429</v>
       </c>
-      <c r="H44" s="214"/>
-      <c r="I44" s="214" t="s">
+      <c r="H44" s="195"/>
+      <c r="I44" s="195" t="s">
         <v>402</v>
       </c>
-      <c r="J44" s="251" t="s">
+      <c r="J44" s="232" t="s">
         <v>472</v>
       </c>
-      <c r="K44" s="215" t="s">
+      <c r="K44" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="L44" s="212"/>
+      <c r="L44" s="193"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="252" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" s="252" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="252" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="252" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="252" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="252" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="252" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="252" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="252" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="252" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="252" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="252" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="252" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="252" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="252" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="252" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="252" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="252" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="252" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="252" t="s">
+        <v>1123</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -30416,62 +30519,62 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:53" ht="15">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="233" t="s">
         <v>1054</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="192"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="234"/>
+      <c r="O1" s="234"/>
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="234"/>
+      <c r="S1" s="234"/>
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="234"/>
+      <c r="W1" s="235"/>
       <c r="X1" s="64"/>
       <c r="Y1" s="64"/>
       <c r="Z1" s="64"/>
-      <c r="AA1" s="193" t="s">
+      <c r="AA1" s="236" t="s">
         <v>1055</v>
       </c>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="194"/>
-      <c r="AH1" s="194"/>
-      <c r="AI1" s="194"/>
-      <c r="AJ1" s="194"/>
-      <c r="AK1" s="194"/>
-      <c r="AL1" s="194"/>
-      <c r="AM1" s="194"/>
-      <c r="AN1" s="194"/>
-      <c r="AO1" s="194"/>
-      <c r="AP1" s="194"/>
-      <c r="AQ1" s="194"/>
-      <c r="AR1" s="194"/>
-      <c r="AS1" s="194"/>
-      <c r="AT1" s="194"/>
-      <c r="AU1" s="194"/>
-      <c r="AV1" s="194"/>
-      <c r="AW1" s="194"/>
-      <c r="AX1" s="194"/>
-      <c r="AY1" s="194"/>
-      <c r="AZ1" s="195"/>
+      <c r="AB1" s="237"/>
+      <c r="AC1" s="237"/>
+      <c r="AD1" s="237"/>
+      <c r="AE1" s="237"/>
+      <c r="AF1" s="237"/>
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="237"/>
+      <c r="AI1" s="237"/>
+      <c r="AJ1" s="237"/>
+      <c r="AK1" s="237"/>
+      <c r="AL1" s="237"/>
+      <c r="AM1" s="237"/>
+      <c r="AN1" s="237"/>
+      <c r="AO1" s="237"/>
+      <c r="AP1" s="237"/>
+      <c r="AQ1" s="237"/>
+      <c r="AR1" s="237"/>
+      <c r="AS1" s="237"/>
+      <c r="AT1" s="237"/>
+      <c r="AU1" s="237"/>
+      <c r="AV1" s="237"/>
+      <c r="AW1" s="237"/>
+      <c r="AX1" s="237"/>
+      <c r="AY1" s="237"/>
+      <c r="AZ1" s="238"/>
       <c r="BA1" s="65"/>
     </row>
     <row r="2" spans="1:53" ht="120">
@@ -49605,27 +49708,27 @@
       <c r="E1" s="142"/>
       <c r="F1" s="142"/>
       <c r="G1" s="142"/>
-      <c r="H1" s="196" t="s">
+      <c r="H1" s="239" t="s">
         <v>1122</v>
       </c>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196" t="s">
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="239"/>
+      <c r="P1" s="239" t="s">
         <v>1123</v>
       </c>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="196"/>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="239"/>
+      <c r="S1" s="239"/>
+      <c r="T1" s="239"/>
+      <c r="U1" s="239"/>
+      <c r="V1" s="239"/>
+      <c r="W1" s="239"/>
+      <c r="X1" s="239"/>
     </row>
     <row r="2" spans="1:24" ht="45">
       <c r="A2" s="52" t="s">
@@ -49924,13 +50027,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="240" t="s">
         <v>1131</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -50540,25 +50643,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="241" t="s">
         <v>1151</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -51126,23 +51229,23 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="23.25">
-      <c r="A23" s="199" t="s">
+      <c r="A23" s="242" t="s">
         <v>1217</v>
       </c>
-      <c r="B23" s="199"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="199"/>
-      <c r="L23" s="199"/>
-      <c r="M23" s="199"/>
-      <c r="N23" s="199"/>
-      <c r="O23" s="199"/>
+      <c r="B23" s="242"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="242"/>
+      <c r="J23" s="242"/>
+      <c r="K23" s="242"/>
+      <c r="L23" s="242"/>
+      <c r="M23" s="242"/>
+      <c r="N23" s="242"/>
+      <c r="O23" s="242"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
@@ -51523,14 +51626,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="20.25">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="243" t="s">
         <v>1257</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -52515,14 +52618,14 @@
       <c r="E6" s="10" t="s">
         <v>1301</v>
       </c>
-      <c r="F6" s="201" t="s">
+      <c r="F6" s="244" t="s">
         <v>1302</v>
       </c>
-      <c r="G6" s="201"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="201"/>
-      <c r="K6" s="201"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="244"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -53107,11 +53210,11 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="245" t="s">
         <v>1353</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -54479,10 +54582,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" customHeight="1">
-      <c r="R4" s="203" t="s">
+      <c r="R4" s="246" t="s">
         <v>1407</v>
       </c>
-      <c r="S4" s="203"/>
+      <c r="S4" s="246"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="7" t="s">
@@ -56043,18 +56146,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be00cd7b-b029-47cf-91ad-6f270bc2d047" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="83d8ec70-ab59-426b-841b-07e8ea93732a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Fechayhora xmlns="83d8ec70-ab59-426b-841b-07e8ea93732a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BA373E84A8806443BF568945B9A01B63" ma:contentTypeVersion="21" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c31b4463b38ab390f8b5cf1a1294681a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="83d8ec70-ab59-426b-841b-07e8ea93732a" xmlns:ns3="be00cd7b-b029-47cf-91ad-6f270bc2d047" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f90d46790f7d482ecc49408198ff7c7" ns2:_="" ns3:_="">
     <xsd:import namespace="83d8ec70-ab59-426b-841b-07e8ea93732a"/>
@@ -56315,7 +56406,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -56324,18 +56415,19 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{269327B7-A956-484D-8B62-867630DD75A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be00cd7b-b029-47cf-91ad-6f270bc2d047"/>
-    <ds:schemaRef ds:uri="83d8ec70-ab59-426b-841b-07e8ea93732a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be00cd7b-b029-47cf-91ad-6f270bc2d047" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="83d8ec70-ab59-426b-841b-07e8ea93732a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Fechayhora xmlns="83d8ec70-ab59-426b-841b-07e8ea93732a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8109AA26-F26B-413F-BD4E-53A8F1251AE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56354,10 +56446,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C01EF9-D0AA-4979-8EEE-7246D42E23F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{269327B7-A956-484D-8B62-867630DD75A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be00cd7b-b029-47cf-91ad-6f270bc2d047"/>
+    <ds:schemaRef ds:uri="83d8ec70-ab59-426b-841b-07e8ea93732a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdrey\Downloads\consolidado.py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jair.uribe\HU REPORTES ANALITICA\consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2AD5EA-282B-414C-BE6F-16DE2973F3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A98707-37EA-41A6-B812-F0C4D177E624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{59408DAA-07A1-4696-BA8D-B1059D8AEE18}"/>
+    <workbookView xWindow="-20610" yWindow="2925" windowWidth="20730" windowHeight="11040" xr2:uid="{59408DAA-07A1-4696-BA8D-B1059D8AEE18}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSOLIDADO" sheetId="1" r:id="rId1"/>
@@ -216,36 +216,18 @@
     </comment>
     <comment ref="M1" authorId="1" shapeId="0" xr:uid="{F04ABAFE-ADE4-466A-B205-33F6B2FB6B9B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Estos campos se alimentan con la base que envía Martha Carreño </t>
-        </r>
       </text>
     </comment>
     <comment ref="Q2" authorId="2" shapeId="0" xr:uid="{05D4EDAD-90A5-4A64-9E7D-B0E2DDB66E28}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     ESTOS valores siempre vendrán predeterminados 1 y $50</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -260,19 +242,10 @@
   <commentList>
     <comment ref="I1" authorId="0" shapeId="0" xr:uid="{859483E8-1460-47A7-8851-0655218E4F6C}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Estos campos se alimentan con la base que envía Martha Carreño </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -303,19 +276,10 @@
     </comment>
     <comment ref="G3" authorId="1" shapeId="0" xr:uid="{02F5FD7C-E7AD-46DB-848B-60F9C28E91B8}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Base de datos arriendos</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -330,19 +294,10 @@
   <commentList>
     <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{01B0E652-1463-4C0E-B64E-3F5F29FF0BE7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Estos campos se alimentan con la base que envía Martha Carreño </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -462,19 +417,10 @@
   <commentList>
     <comment ref="L1" authorId="0" shapeId="0" xr:uid="{8525D421-4B64-423D-91FD-05F493F9B830}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Estos campos se alimentan con la base que envía Martha Carreño </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -489,19 +435,10 @@
   <commentList>
     <comment ref="T1" authorId="0" shapeId="0" xr:uid="{37F2D970-F1A2-4455-901D-EF6B8418F70E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Estos campos se alimentan con la base que envía Martha Carreño </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -516,19 +453,10 @@
   <commentList>
     <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{6257490C-14A0-4DCC-A205-A4FBEC8CCFFC}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Estos campos se alimentan con la base que envía Martha Carreño </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -7034,7 +6962,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7463,22 +7391,22 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7487,10 +7415,10 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7502,10 +7430,7 @@
     <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="42" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7526,23 +7451,17 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="42" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7609,7 +7528,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10900,23 +10819,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7044E3A-7917-42E6-B834-4B816E36B4E9}">
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="49.625" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="2" max="2" width="49.6328125" customWidth="1"/>
     <col min="3" max="3" width="50" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-    <col min="11" max="11" width="28.75" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="11" max="11" width="28.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24">
@@ -12260,7 +12179,7 @@
       </c>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" s="73" customFormat="1" ht="14.25">
+    <row r="38" spans="1:12" s="73" customFormat="1" ht="14.5">
       <c r="A38" s="170">
         <v>37</v>
       </c>
@@ -12294,7 +12213,7 @@
       </c>
       <c r="L38" s="171"/>
     </row>
-    <row r="39" spans="1:12" s="73" customFormat="1" ht="14.25">
+    <row r="39" spans="1:12" s="73" customFormat="1" ht="14.5">
       <c r="A39" s="170">
         <v>38</v>
       </c>
@@ -12362,7 +12281,7 @@
       </c>
       <c r="L40" s="171"/>
     </row>
-    <row r="41" spans="1:12" s="73" customFormat="1" ht="14.25">
+    <row r="41" spans="1:12" s="73" customFormat="1" ht="14.5">
       <c r="A41" s="170">
         <v>40</v>
       </c>
@@ -14600,7 +14519,7 @@
       </c>
       <c r="L106" s="171"/>
     </row>
-    <row r="107" spans="1:12" s="73" customFormat="1" ht="14.25">
+    <row r="107" spans="1:12" s="73" customFormat="1" ht="14.5">
       <c r="A107" s="170">
         <v>106</v>
       </c>
@@ -14634,7 +14553,7 @@
       </c>
       <c r="L107" s="171"/>
     </row>
-    <row r="108" spans="1:12" s="73" customFormat="1" ht="14.25">
+    <row r="108" spans="1:12" s="73" customFormat="1" ht="14.5">
       <c r="A108" s="170">
         <v>107</v>
       </c>
@@ -14770,7 +14689,7 @@
       </c>
       <c r="L111" s="171"/>
     </row>
-    <row r="112" spans="1:12" s="73" customFormat="1" ht="14.25">
+    <row r="112" spans="1:12" s="73" customFormat="1" ht="14.5">
       <c r="A112" s="170">
         <v>111</v>
       </c>
@@ -14804,7 +14723,7 @@
       </c>
       <c r="L112" s="171"/>
     </row>
-    <row r="113" spans="1:12" s="73" customFormat="1" ht="14.25">
+    <row r="113" spans="1:12" s="73" customFormat="1" ht="14.5">
       <c r="A113" s="170">
         <v>112</v>
       </c>
@@ -14838,7 +14757,7 @@
       </c>
       <c r="L113" s="171"/>
     </row>
-    <row r="114" spans="1:12" s="73" customFormat="1" ht="14.25">
+    <row r="114" spans="1:12" s="73" customFormat="1" ht="14.5">
       <c r="A114" s="170">
         <v>113</v>
       </c>
@@ -14906,7 +14825,7 @@
       </c>
       <c r="L115" s="171"/>
     </row>
-    <row r="116" spans="1:12" s="73" customFormat="1" ht="14.25">
+    <row r="116" spans="1:12" s="73" customFormat="1" ht="14.5">
       <c r="A116" s="170">
         <v>115</v>
       </c>
@@ -14940,7 +14859,7 @@
       </c>
       <c r="L116" s="171"/>
     </row>
-    <row r="117" spans="1:12" s="73" customFormat="1" ht="14.25">
+    <row r="117" spans="1:12" s="73" customFormat="1" ht="14.5">
       <c r="A117" s="170">
         <v>116</v>
       </c>
@@ -15076,7 +14995,7 @@
       </c>
       <c r="L120" s="171"/>
     </row>
-    <row r="121" spans="1:12" s="73" customFormat="1" ht="14.25">
+    <row r="121" spans="1:12" s="73" customFormat="1" ht="14.5">
       <c r="A121" s="170">
         <v>120</v>
       </c>
@@ -15110,7 +15029,7 @@
       </c>
       <c r="L121" s="171"/>
     </row>
-    <row r="122" spans="1:12" s="73" customFormat="1" ht="14.25">
+    <row r="122" spans="1:12" s="73" customFormat="1" ht="14.5">
       <c r="A122" s="170">
         <v>121</v>
       </c>
@@ -15176,7 +15095,7 @@
       </c>
       <c r="L123" s="174"/>
     </row>
-    <row r="125" spans="1:12" ht="14.25">
+    <row r="125" spans="1:12" ht="14.5">
       <c r="B125" s="50" t="s">
         <v>476</v>
       </c>
@@ -15306,7 +15225,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -15387,20 +15306,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="29.875" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.75" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="11" max="11" width="19.875" customWidth="1"/>
+    <col min="11" max="11" width="19.90625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="15.75" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
-    <col min="16" max="16" width="14.75" customWidth="1"/>
-    <col min="18" max="18" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" customWidth="1"/>
+    <col min="14" max="14" width="17.36328125" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -15652,7 +15571,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15">
+    <row r="9" spans="1:21">
       <c r="A9" s="7" t="s">
         <v>1287</v>
       </c>
@@ -15701,18 +15620,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="6" width="20.25" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="6" width="20.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" customWidth="1"/>
+    <col min="8" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" customWidth="1"/>
+    <col min="12" max="12" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15772,19 +15691,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="21.875" customWidth="1"/>
-    <col min="9" max="9" width="35.125" customWidth="1"/>
-    <col min="10" max="10" width="37.25" customWidth="1"/>
-    <col min="11" max="11" width="45.25" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="8" max="8" width="21.90625" customWidth="1"/>
+    <col min="9" max="9" width="35.08984375" customWidth="1"/>
+    <col min="10" max="10" width="37.26953125" customWidth="1"/>
+    <col min="11" max="11" width="45.26953125" customWidth="1"/>
     <col min="12" max="12" width="68" customWidth="1"/>
-    <col min="13" max="13" width="55.75" customWidth="1"/>
+    <col min="13" max="13" width="55.7265625" customWidth="1"/>
     <col min="14" max="15" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:17">
       <c r="A1" s="23" t="s">
         <v>1568</v>
       </c>
@@ -16198,7 +16117,7 @@
         <v>20830581</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15">
+    <row r="12" spans="1:17">
       <c r="A12" s="50" t="s">
         <v>476</v>
       </c>
@@ -16220,35 +16139,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="113" customWidth="1"/>
-    <col min="4" max="4" width="52.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" style="113" customWidth="1"/>
+    <col min="4" max="4" width="52.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
-    <col min="10" max="10" width="41.375" customWidth="1"/>
-    <col min="11" max="11" width="34.625" customWidth="1"/>
-    <col min="12" max="12" width="35.125" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.08984375" customWidth="1"/>
+    <col min="10" max="10" width="41.36328125" customWidth="1"/>
+    <col min="11" max="11" width="34.6328125" customWidth="1"/>
+    <col min="12" max="12" width="35.08984375" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="22.875" customWidth="1"/>
+    <col min="14" max="14" width="22.90625" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="39.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.875" customWidth="1"/>
+    <col min="16" max="16" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15">
+    <row r="1" spans="1:24">
       <c r="A1" s="23" t="s">
         <v>1174</v>
       </c>
@@ -16781,24 +16700,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
-    <col min="8" max="8" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1"/>
-    <col min="12" max="12" width="19.75" customWidth="1"/>
-    <col min="14" max="14" width="20.625" customWidth="1"/>
-    <col min="15" max="15" width="25.125" customWidth="1"/>
-    <col min="16" max="16" width="46.375" customWidth="1"/>
+    <col min="1" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="8" max="8" width="19.26953125" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
+    <col min="12" max="12" width="19.7265625" customWidth="1"/>
+    <col min="14" max="14" width="20.6328125" customWidth="1"/>
+    <col min="15" max="15" width="25.08984375" customWidth="1"/>
+    <col min="16" max="16" width="46.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="42.75">
+    <row r="1" spans="1:16" ht="43.5">
       <c r="A1" s="103" t="s">
         <v>1653</v>
       </c>
@@ -17195,14 +17114,14 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16">
       <c r="A10" s="9" t="s">
         <v>1287</v>
       </c>
       <c r="B10" s="10"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:16" ht="42.75">
+    <row r="11" spans="1:16" ht="43.5">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>1288</v>
@@ -17227,15 +17146,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="36.625" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="36.6328125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" customWidth="1"/>
     <col min="12" max="12" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17277,7 +17196,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12">
       <c r="A2" s="18">
         <v>45344</v>
       </c>
@@ -17315,7 +17234,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="18">
         <v>45344</v>
       </c>
@@ -17372,17 +17291,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.875" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.625" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="32.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" customWidth="1"/>
+    <col min="11" max="11" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -17445,10 +17364,10 @@
       <c r="D2">
         <v>3041181550</v>
       </c>
-      <c r="E2" s="247" t="s">
+      <c r="E2" s="244" t="s">
         <v>1706</v>
       </c>
-      <c r="F2" s="247"/>
+      <c r="F2" s="244"/>
       <c r="G2">
         <v>59900</v>
       </c>
@@ -17546,13 +17465,13 @@
         <v>1001046304</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:15">
       <c r="A9" s="9" t="s">
         <v>1287</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:15" ht="28.5">
+    <row r="10" spans="1:15" ht="29">
       <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>1288</v>
@@ -17581,29 +17500,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="33.625" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="8" width="31.625" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
-    <col min="10" max="10" width="20.375" customWidth="1"/>
-    <col min="11" max="11" width="63.375" customWidth="1"/>
-    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" customWidth="1"/>
+    <col min="6" max="6" width="33.6328125" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" customWidth="1"/>
+    <col min="8" max="8" width="31.6328125" customWidth="1"/>
+    <col min="9" max="9" width="22.08984375" customWidth="1"/>
+    <col min="10" max="10" width="20.36328125" customWidth="1"/>
+    <col min="11" max="11" width="63.36328125" customWidth="1"/>
+    <col min="12" max="12" width="16.90625" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="19.625" customWidth="1"/>
-    <col min="16" max="16" width="16.625" customWidth="1"/>
-    <col min="17" max="17" width="31.875" customWidth="1"/>
-    <col min="19" max="19" width="34.25" customWidth="1"/>
+    <col min="15" max="15" width="19.6328125" customWidth="1"/>
+    <col min="16" max="16" width="16.6328125" customWidth="1"/>
+    <col min="17" max="17" width="31.90625" customWidth="1"/>
+    <col min="19" max="19" width="34.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15">
+    <row r="1" spans="1:23">
       <c r="A1" s="17" t="s">
         <v>1417</v>
       </c>
@@ -17708,11 +17627,11 @@
       <c r="K2" s="17" t="s">
         <v>1720</v>
       </c>
-      <c r="L2" s="248" t="s">
+      <c r="L2" s="245" t="s">
         <v>1721</v>
       </c>
-      <c r="M2" s="248"/>
-      <c r="N2" s="248"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
       <c r="O2" s="17">
         <v>10240220203</v>
       </c>
@@ -17729,7 +17648,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15">
+    <row r="3" spans="1:23">
       <c r="A3" s="18">
         <v>45292</v>
       </c>
@@ -17788,7 +17707,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15">
+    <row r="4" spans="1:23">
       <c r="A4" s="18">
         <v>45292</v>
       </c>
@@ -17847,7 +17766,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15">
+    <row r="5" spans="1:23">
       <c r="A5" s="18">
         <v>45292</v>
       </c>
@@ -17906,7 +17825,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15">
+    <row r="6" spans="1:23">
       <c r="A6" s="18">
         <v>45292</v>
       </c>
@@ -17965,7 +17884,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15">
+    <row r="7" spans="1:23">
       <c r="A7" s="18">
         <v>45292</v>
       </c>
@@ -18024,7 +17943,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15">
+    <row r="8" spans="1:23">
       <c r="A8" s="18">
         <v>45292</v>
       </c>
@@ -18083,7 +18002,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15">
+    <row r="9" spans="1:23">
       <c r="A9" s="18">
         <v>45292</v>
       </c>
@@ -18142,7 +18061,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15">
+    <row r="10" spans="1:23">
       <c r="A10" s="18">
         <v>45292</v>
       </c>
@@ -18201,7 +18120,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15">
+    <row r="11" spans="1:23">
       <c r="A11" s="18">
         <v>45292</v>
       </c>
@@ -18260,7 +18179,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15">
+    <row r="12" spans="1:23">
       <c r="A12" s="18">
         <v>45292</v>
       </c>
@@ -18319,7 +18238,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15">
+    <row r="13" spans="1:23">
       <c r="A13" s="18">
         <v>45292</v>
       </c>
@@ -18378,7 +18297,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15">
+    <row r="14" spans="1:23">
       <c r="A14" s="18">
         <v>45292</v>
       </c>
@@ -18437,7 +18356,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15">
+    <row r="15" spans="1:23">
       <c r="A15" s="18">
         <v>45292</v>
       </c>
@@ -18496,7 +18415,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15">
+    <row r="16" spans="1:23">
       <c r="A16" s="18">
         <v>45292</v>
       </c>
@@ -18555,7 +18474,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15">
+    <row r="17" spans="1:19">
       <c r="A17" s="18">
         <v>45292</v>
       </c>
@@ -18614,7 +18533,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15">
+    <row r="18" spans="1:19">
       <c r="A18" s="18">
         <v>45292</v>
       </c>
@@ -18673,13 +18592,13 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15">
+    <row r="21" spans="1:19">
       <c r="A21" s="9" t="s">
         <v>1287</v>
       </c>
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:19" ht="28.5">
+    <row r="22" spans="1:19" ht="29">
       <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
         <v>1288</v>
@@ -18710,40 +18629,40 @@
       <selection sqref="A1:AH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="3" max="3" width="29.25" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="5" width="28.90625" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="39.125" customWidth="1"/>
-    <col min="9" max="9" width="19.125" customWidth="1"/>
-    <col min="10" max="10" width="17.25" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
-    <col min="12" max="12" width="22.25" customWidth="1"/>
-    <col min="13" max="13" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="39.08984375" customWidth="1"/>
+    <col min="9" max="9" width="19.08984375" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+    <col min="12" max="12" width="22.26953125" customWidth="1"/>
+    <col min="13" max="13" width="21.08984375" customWidth="1"/>
     <col min="14" max="14" width="26" customWidth="1"/>
-    <col min="15" max="15" width="23.125" customWidth="1"/>
-    <col min="16" max="16" width="22.25" customWidth="1"/>
+    <col min="15" max="15" width="23.08984375" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="23.75" customWidth="1"/>
+    <col min="18" max="18" width="23.7265625" customWidth="1"/>
     <col min="19" max="19" width="39" customWidth="1"/>
-    <col min="20" max="20" width="20.75" customWidth="1"/>
-    <col min="21" max="21" width="18.875" customWidth="1"/>
-    <col min="22" max="22" width="36.75" customWidth="1"/>
-    <col min="23" max="23" width="22.25" customWidth="1"/>
+    <col min="20" max="20" width="20.7265625" customWidth="1"/>
+    <col min="21" max="21" width="18.90625" customWidth="1"/>
+    <col min="22" max="22" width="36.7265625" customWidth="1"/>
+    <col min="23" max="23" width="22.26953125" customWidth="1"/>
     <col min="24" max="24" width="27" customWidth="1"/>
-    <col min="25" max="25" width="31.375" customWidth="1"/>
-    <col min="27" max="27" width="22.875" customWidth="1"/>
-    <col min="28" max="28" width="41.25" customWidth="1"/>
-    <col min="29" max="29" width="25.25" customWidth="1"/>
-    <col min="30" max="30" width="27.25" customWidth="1"/>
+    <col min="25" max="25" width="31.36328125" customWidth="1"/>
+    <col min="27" max="27" width="22.90625" customWidth="1"/>
+    <col min="28" max="28" width="41.26953125" customWidth="1"/>
+    <col min="29" max="29" width="25.26953125" customWidth="1"/>
+    <col min="30" max="30" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="45">
+    <row r="1" spans="1:34" ht="58">
       <c r="A1" s="17" t="s">
         <v>1459</v>
       </c>
@@ -18847,7 +18766,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34">
       <c r="A2" s="14">
         <v>977188</v>
       </c>
@@ -18929,7 +18848,7 @@
         <v>20241655612</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34">
       <c r="A3" s="14">
         <v>975849</v>
       </c>
@@ -19009,7 +18928,7 @@
         <v>20240077496</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34">
       <c r="A4" s="14">
         <v>976166</v>
       </c>
@@ -19095,7 +19014,7 @@
         <v>20240867012</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34">
       <c r="A5" s="14">
         <v>976739</v>
       </c>
@@ -19177,7 +19096,7 @@
         <v>20241110308</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34">
       <c r="A6" s="14">
         <v>976763</v>
       </c>
@@ -19259,7 +19178,7 @@
         <v>20241178856</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="15">
+    <row r="10" spans="1:34">
       <c r="A10" s="9" t="s">
         <v>1287</v>
       </c>
@@ -19296,23 +19215,23 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="37.25" customWidth="1"/>
+    <col min="4" max="4" width="37.26953125" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="19.08984375" customWidth="1"/>
+    <col min="9" max="9" width="24.26953125" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="27.375" customWidth="1"/>
-    <col min="13" max="13" width="20.375" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
-    <col min="15" max="15" width="24.75" customWidth="1"/>
-    <col min="16" max="16" width="39.375" customWidth="1"/>
-    <col min="17" max="17" width="45.125" customWidth="1"/>
-    <col min="18" max="18" width="24.875" customWidth="1"/>
+    <col min="12" max="12" width="27.36328125" customWidth="1"/>
+    <col min="13" max="13" width="20.36328125" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" customWidth="1"/>
+    <col min="15" max="15" width="24.7265625" customWidth="1"/>
+    <col min="16" max="16" width="39.36328125" customWidth="1"/>
+    <col min="17" max="17" width="45.08984375" customWidth="1"/>
+    <col min="18" max="18" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -19590,12 +19509,12 @@
       <c r="L6" t="s">
         <v>1699</v>
       </c>
-      <c r="M6" s="251" t="s">
+      <c r="M6" s="248" t="s">
         <v>1799</v>
       </c>
-      <c r="N6" s="251"/>
-      <c r="O6" s="251"/>
-      <c r="P6" s="251"/>
+      <c r="N6" s="248"/>
+      <c r="O6" s="248"/>
+      <c r="P6" s="248"/>
       <c r="Q6">
         <v>1</v>
       </c>
@@ -19637,10 +19556,10 @@
       <c r="L7" t="s">
         <v>1699</v>
       </c>
-      <c r="M7" s="251"/>
-      <c r="N7" s="251"/>
-      <c r="O7" s="251"/>
-      <c r="P7" s="251"/>
+      <c r="M7" s="248"/>
+      <c r="N7" s="248"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
       <c r="Q7">
         <v>1</v>
       </c>
@@ -19739,22 +19658,22 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="28.5">
+    <row r="12" spans="1:18" ht="29">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="57">
-      <c r="A13" s="249" t="s">
+    <row r="13" spans="1:18" ht="58">
+      <c r="A13" s="246" t="s">
         <v>1801</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="57">
-      <c r="A14" s="250"/>
+    <row r="14" spans="1:18" ht="43.5">
+      <c r="A14" s="247"/>
       <c r="B14" s="12" t="s">
         <v>1803</v>
       </c>
@@ -19783,11 +19702,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19865,16 +19784,16 @@
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="28.75" customWidth="1"/>
-    <col min="8" max="8" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+    <col min="5" max="5" width="25.36328125" customWidth="1"/>
+    <col min="6" max="6" width="24.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.7265625" customWidth="1"/>
+    <col min="8" max="8" width="24.90625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20046,7 +19965,7 @@
         <v>70913</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
         <v>1287</v>
       </c>
@@ -20080,7 +19999,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.36328125" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="90" t="s">
@@ -20159,11 +20078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB98F4B4-1911-4F3F-9B56-4D6A55B04961}">
   <dimension ref="A57"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="57" spans="1:1">
       <c r="A57" s="50" t="s">
@@ -20187,7 +20104,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="89" t="s">
@@ -20250,24 +20167,24 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15">
+    <row r="1" spans="1:35">
       <c r="A1" s="86" t="s">
         <v>614</v>
       </c>
@@ -20405,28 +20322,28 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" customWidth="1"/>
-    <col min="17" max="17" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.90625" customWidth="1"/>
+    <col min="17" max="17" width="21.6328125" customWidth="1"/>
     <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.125" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15">
+    <row r="1" spans="1:28">
       <c r="A1" s="83" t="s">
         <v>648</v>
       </c>
@@ -20546,17 +20463,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.25" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15">
+    <row r="1" spans="1:36">
       <c r="A1" s="46" t="s">
         <v>678</v>
       </c>
@@ -20707,7 +20624,7 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" t="s">
@@ -20866,11 +20783,11 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -20937,14 +20854,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -21014,64 +20931,64 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.90625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="8" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.08984375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="29" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="25.75" customWidth="1"/>
-    <col min="58" max="58" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="25.7265625" customWidth="1"/>
+    <col min="58" max="58" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
@@ -21244,7 +21161,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="15">
+    <row r="2" spans="1:59">
       <c r="A2" s="132">
         <v>13</v>
       </c>
@@ -21413,7 +21330,7 @@
       </c>
       <c r="BG2" s="17"/>
     </row>
-    <row r="3" spans="1:59" ht="15">
+    <row r="3" spans="1:59">
       <c r="A3" s="132">
         <v>95</v>
       </c>
@@ -21581,7 +21498,7 @@
       </c>
       <c r="BG3" s="17"/>
     </row>
-    <row r="4" spans="1:59" ht="15">
+    <row r="4" spans="1:59">
       <c r="A4" s="132">
         <v>105</v>
       </c>
@@ -21749,7 +21666,7 @@
       </c>
       <c r="BG4" s="17"/>
     </row>
-    <row r="5" spans="1:59" ht="15">
+    <row r="5" spans="1:59">
       <c r="A5" s="132">
         <v>122</v>
       </c>
@@ -21917,7 +21834,7 @@
       </c>
       <c r="BG5" s="17"/>
     </row>
-    <row r="6" spans="1:59" ht="15">
+    <row r="6" spans="1:59">
       <c r="A6" s="132">
         <v>127</v>
       </c>
@@ -22085,7 +22002,7 @@
       </c>
       <c r="BG6" s="17"/>
     </row>
-    <row r="7" spans="1:59" ht="15">
+    <row r="7" spans="1:59">
       <c r="A7" s="132">
         <v>133</v>
       </c>
@@ -22253,7 +22170,7 @@
       </c>
       <c r="BG7" s="17"/>
     </row>
-    <row r="8" spans="1:59" ht="15">
+    <row r="8" spans="1:59">
       <c r="A8" s="132">
         <v>1001</v>
       </c>
@@ -22421,7 +22338,7 @@
       </c>
       <c r="BG8" s="17"/>
     </row>
-    <row r="9" spans="1:59" ht="15">
+    <row r="9" spans="1:59">
       <c r="A9" s="132">
         <v>1054</v>
       </c>
@@ -22589,7 +22506,7 @@
       </c>
       <c r="BG9" s="17"/>
     </row>
-    <row r="10" spans="1:59" ht="15">
+    <row r="10" spans="1:59">
       <c r="A10" s="132">
         <v>1061</v>
       </c>
@@ -22757,7 +22674,7 @@
       </c>
       <c r="BG10" s="17"/>
     </row>
-    <row r="11" spans="1:59" ht="15">
+    <row r="11" spans="1:59">
       <c r="A11" s="132">
         <v>1202</v>
       </c>
@@ -22925,7 +22842,7 @@
       </c>
       <c r="BG11" s="17"/>
     </row>
-    <row r="12" spans="1:59" ht="15">
+    <row r="12" spans="1:59">
       <c r="A12" s="132">
         <v>1504</v>
       </c>
@@ -23093,7 +23010,7 @@
       </c>
       <c r="BG12" s="17"/>
     </row>
-    <row r="13" spans="1:59" ht="15">
+    <row r="13" spans="1:59">
       <c r="A13" s="132">
         <v>1516</v>
       </c>
@@ -23261,7 +23178,7 @@
       </c>
       <c r="BG13" s="17"/>
     </row>
-    <row r="14" spans="1:59" ht="15">
+    <row r="14" spans="1:59">
       <c r="A14" s="132">
         <v>1517</v>
       </c>
@@ -23429,7 +23346,7 @@
       </c>
       <c r="BG14" s="17"/>
     </row>
-    <row r="15" spans="1:59" ht="15">
+    <row r="15" spans="1:59">
       <c r="A15" s="132">
         <v>1602</v>
       </c>
@@ -23597,7 +23514,7 @@
       </c>
       <c r="BG15" s="17"/>
     </row>
-    <row r="16" spans="1:59" ht="15">
+    <row r="16" spans="1:59">
       <c r="A16" s="132">
         <v>1710</v>
       </c>
@@ -23793,7 +23710,7 @@
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
@@ -23841,71 +23758,71 @@
   </sheetPr>
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="11" style="103"/>
-    <col min="2" max="2" width="37.75" style="103" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7265625" style="103" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="103"/>
-    <col min="5" max="5" width="19.25" style="103" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="103" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" style="103" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="103" customWidth="1"/>
     <col min="7" max="7" width="11" style="103"/>
-    <col min="8" max="8" width="12.375" style="103" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" style="103" customWidth="1"/>
     <col min="9" max="9" width="15" style="103" customWidth="1"/>
-    <col min="10" max="10" width="22.625" style="103" customWidth="1"/>
-    <col min="11" max="11" width="27.5" style="103" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="103" customWidth="1"/>
+    <col min="10" max="10" width="22.6328125" style="103" customWidth="1"/>
+    <col min="11" max="11" width="27.453125" style="103" customWidth="1"/>
+    <col min="12" max="12" width="22.453125" style="103" customWidth="1"/>
     <col min="13" max="16384" width="11" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5">
+    <row r="1" spans="1:12" ht="29">
       <c r="A1" s="190" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="226" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="227" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="230" t="s">
+      <c r="C2" s="227" t="s">
         <v>1832</v>
       </c>
-      <c r="D2" s="230" t="s">
+      <c r="D2" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="230" t="s">
+      <c r="E2" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="230" t="s">
+      <c r="F2" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="230" t="s">
+      <c r="G2" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="230" t="s">
+      <c r="H2" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="230" t="s">
+      <c r="I2" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="230" t="s">
+      <c r="J2" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="230" t="s">
+      <c r="K2" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="230" t="s">
+      <c r="L2" s="227" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.5">
-      <c r="A3" s="217">
+    <row r="3" spans="1:12" ht="29">
+      <c r="A3" s="216">
         <v>21</v>
       </c>
       <c r="B3" s="201" t="s">
@@ -23942,8 +23859,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.5">
-      <c r="A4" s="218">
+    <row r="4" spans="1:12" ht="29">
+      <c r="A4" s="217">
         <v>22</v>
       </c>
       <c r="B4" s="201" t="s">
@@ -23976,10 +23893,10 @@
       <c r="K4" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="223"/>
+      <c r="L4" s="193"/>
     </row>
     <row r="5" spans="1:12" ht="36">
-      <c r="A5" s="217">
+      <c r="A5" s="216">
         <v>23</v>
       </c>
       <c r="B5" s="201" t="s">
@@ -24014,8 +23931,8 @@
       </c>
       <c r="L5" s="202"/>
     </row>
-    <row r="6" spans="1:12" ht="120">
-      <c r="A6" s="218">
+    <row r="6" spans="1:12" ht="108">
+      <c r="A6" s="217">
         <v>24</v>
       </c>
       <c r="B6" s="208" t="s">
@@ -24048,10 +23965,10 @@
       <c r="K6" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="223"/>
+      <c r="L6" s="193"/>
     </row>
     <row r="7" spans="1:12" ht="48">
-      <c r="A7" s="217">
+      <c r="A7" s="216">
         <v>25</v>
       </c>
       <c r="B7" s="201" t="s">
@@ -24087,7 +24004,7 @@
       <c r="L7" s="202"/>
     </row>
     <row r="8" spans="1:12" ht="36">
-      <c r="A8" s="219">
+      <c r="A8" s="218">
         <v>26</v>
       </c>
       <c r="B8" s="201" t="s">
@@ -24120,12 +24037,12 @@
       <c r="K8" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="224" t="s">
+      <c r="L8" s="222" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="24">
-      <c r="A9" s="217">
+      <c r="A9" s="216">
         <v>27</v>
       </c>
       <c r="B9" s="201" t="s">
@@ -24161,7 +24078,7 @@
       <c r="L9" s="202"/>
     </row>
     <row r="10" spans="1:12" ht="48">
-      <c r="A10" s="218">
+      <c r="A10" s="217">
         <v>28</v>
       </c>
       <c r="B10" s="201" t="s">
@@ -24194,10 +24111,10 @@
       <c r="K10" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="223"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.5">
-      <c r="A11" s="217">
+      <c r="L10" s="193"/>
+    </row>
+    <row r="11" spans="1:12" ht="29">
+      <c r="A11" s="216">
         <v>29</v>
       </c>
       <c r="B11" s="201" t="s">
@@ -24234,8 +24151,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.5">
-      <c r="A12" s="218">
+    <row r="12" spans="1:12" ht="29">
+      <c r="A12" s="217">
         <v>30</v>
       </c>
       <c r="B12" s="201" t="s">
@@ -24268,10 +24185,10 @@
       <c r="K12" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="223"/>
+      <c r="L12" s="193"/>
     </row>
     <row r="13" spans="1:12" ht="24">
-      <c r="A13" s="217">
+      <c r="A13" s="216">
         <v>31</v>
       </c>
       <c r="B13" s="212" t="s">
@@ -24306,8 +24223,8 @@
       </c>
       <c r="L13" s="202"/>
     </row>
-    <row r="14" spans="1:12" ht="28.5">
-      <c r="A14" s="218">
+    <row r="14" spans="1:12" ht="29">
+      <c r="A14" s="217">
         <v>32</v>
       </c>
       <c r="B14" s="212" t="s">
@@ -24340,10 +24257,10 @@
       <c r="K14" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="223"/>
+      <c r="L14" s="193"/>
     </row>
     <row r="15" spans="1:12" ht="24">
-      <c r="A15" s="217">
+      <c r="A15" s="216">
         <v>33</v>
       </c>
       <c r="B15" s="212" t="s">
@@ -24376,10 +24293,10 @@
       <c r="K15" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="225"/>
-    </row>
-    <row r="16" spans="1:12" ht="85.5">
-      <c r="A16" s="218">
+      <c r="L15" s="223"/>
+    </row>
+    <row r="16" spans="1:12" ht="87">
+      <c r="A16" s="217">
         <v>34</v>
       </c>
       <c r="B16" s="212" t="s">
@@ -24412,12 +24329,12 @@
       <c r="K16" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="223" t="s">
+      <c r="L16" s="193" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="48">
-      <c r="A17" s="217">
+      <c r="A17" s="216">
         <v>35</v>
       </c>
       <c r="B17" s="212" t="s">
@@ -24453,7 +24370,7 @@
       <c r="L17" s="202"/>
     </row>
     <row r="18" spans="1:12" ht="48">
-      <c r="A18" s="218">
+      <c r="A18" s="217">
         <v>36</v>
       </c>
       <c r="B18" s="212" t="s">
@@ -24486,10 +24403,10 @@
       <c r="K18" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="223"/>
+      <c r="L18" s="193"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="217"/>
+      <c r="A19" s="216"/>
       <c r="B19" s="200"/>
       <c r="C19" s="200"/>
       <c r="D19" s="200"/>
@@ -24503,7 +24420,7 @@
       <c r="L19" s="202"/>
     </row>
     <row r="20" spans="1:12" ht="36">
-      <c r="A20" s="219">
+      <c r="A20" s="218">
         <v>41</v>
       </c>
       <c r="B20" s="212" t="s">
@@ -24534,10 +24451,10 @@
       <c r="K20" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="224"/>
+      <c r="L20" s="222"/>
     </row>
     <row r="21" spans="1:12" ht="36">
-      <c r="A21" s="219">
+      <c r="A21" s="218">
         <v>42</v>
       </c>
       <c r="B21" s="212" t="s">
@@ -24568,10 +24485,10 @@
       <c r="K21" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="224"/>
+      <c r="L21" s="222"/>
     </row>
     <row r="22" spans="1:12" ht="48">
-      <c r="A22" s="219">
+      <c r="A22" s="218">
         <v>43</v>
       </c>
       <c r="B22" s="212" t="s">
@@ -24602,10 +24519,10 @@
       <c r="K22" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="224"/>
+      <c r="L22" s="222"/>
     </row>
     <row r="23" spans="1:12" ht="48">
-      <c r="A23" s="219">
+      <c r="A23" s="218">
         <v>44</v>
       </c>
       <c r="B23" s="212" t="s">
@@ -24636,10 +24553,10 @@
       <c r="K23" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="224"/>
+      <c r="L23" s="222"/>
     </row>
     <row r="24" spans="1:12" ht="36">
-      <c r="A24" s="219">
+      <c r="A24" s="218">
         <v>45</v>
       </c>
       <c r="B24" s="212" t="s">
@@ -24670,10 +24587,10 @@
       <c r="K24" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="224"/>
+      <c r="L24" s="222"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="217"/>
+      <c r="A25" s="216"/>
       <c r="B25" s="200"/>
       <c r="C25" s="200"/>
       <c r="D25" s="200"/>
@@ -24687,7 +24604,7 @@
       <c r="L25" s="202"/>
     </row>
     <row r="26" spans="1:12" ht="24">
-      <c r="A26" s="220">
+      <c r="A26" s="219">
         <v>75</v>
       </c>
       <c r="B26" s="214" t="s">
@@ -24715,13 +24632,13 @@
       <c r="J26" s="215" t="s">
         <v>304</v>
       </c>
-      <c r="K26" s="216" t="s">
+      <c r="K26" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="226"/>
+      <c r="L26" s="191"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="221"/>
+      <c r="A27" s="220"/>
       <c r="B27" s="183"/>
       <c r="C27" s="183"/>
       <c r="D27" s="183"/>
@@ -24732,7 +24649,7 @@
       <c r="I27" s="183"/>
       <c r="J27" s="197"/>
       <c r="K27" s="198"/>
-      <c r="L27" s="227"/>
+      <c r="L27" s="224"/>
     </row>
     <row r="28" spans="1:12" ht="48">
       <c r="A28" s="192">
@@ -24766,7 +24683,7 @@
       <c r="K28" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="228"/>
+      <c r="L28" s="225"/>
     </row>
     <row r="29" spans="1:12" ht="48">
       <c r="A29" s="192">
@@ -24800,10 +24717,10 @@
       <c r="K29" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="228"/>
+      <c r="L29" s="225"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="222"/>
+      <c r="A30" s="221"/>
       <c r="B30" s="199"/>
       <c r="C30" s="199"/>
       <c r="D30" s="199"/>
@@ -24814,7 +24731,7 @@
       <c r="I30" s="199"/>
       <c r="J30" s="199"/>
       <c r="K30" s="199"/>
-      <c r="L30" s="227"/>
+      <c r="L30" s="224"/>
     </row>
     <row r="31" spans="1:12" ht="24">
       <c r="A31" s="192">
@@ -24848,7 +24765,7 @@
       <c r="K31" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="228"/>
+      <c r="L31" s="225"/>
     </row>
     <row r="32" spans="1:12" ht="24">
       <c r="A32" s="192">
@@ -24882,7 +24799,7 @@
       <c r="K32" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="228"/>
+      <c r="L32" s="225"/>
     </row>
     <row r="33" spans="1:12" ht="48">
       <c r="A33" s="192">
@@ -24916,7 +24833,7 @@
       <c r="K33" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="228"/>
+      <c r="L33" s="225"/>
     </row>
     <row r="34" spans="1:12" ht="48">
       <c r="A34" s="192">
@@ -24950,7 +24867,7 @@
       <c r="K34" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="228"/>
+      <c r="L34" s="225"/>
     </row>
     <row r="35" spans="1:12" ht="36">
       <c r="A35" s="192">
@@ -24984,9 +24901,9 @@
       <c r="K35" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="228"/>
-    </row>
-    <row r="36" spans="1:12" ht="48">
+      <c r="L35" s="225"/>
+    </row>
+    <row r="36" spans="1:12" ht="36">
       <c r="A36" s="192">
         <v>111</v>
       </c>
@@ -25018,7 +24935,7 @@
       <c r="K36" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="228"/>
+      <c r="L36" s="225"/>
     </row>
     <row r="37" spans="1:12" ht="36">
       <c r="A37" s="192">
@@ -25052,7 +24969,7 @@
       <c r="K37" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="228"/>
+      <c r="L37" s="225"/>
     </row>
     <row r="38" spans="1:12" ht="36">
       <c r="A38" s="192">
@@ -25086,7 +25003,7 @@
       <c r="K38" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="228"/>
+      <c r="L38" s="225"/>
     </row>
     <row r="39" spans="1:12" ht="36">
       <c r="A39" s="192">
@@ -25120,7 +25037,7 @@
       <c r="K39" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="228"/>
+      <c r="L39" s="225"/>
     </row>
     <row r="40" spans="1:12" ht="24">
       <c r="A40" s="192">
@@ -25154,7 +25071,7 @@
       <c r="K40" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="228"/>
+      <c r="L40" s="225"/>
     </row>
     <row r="41" spans="1:12" ht="24">
       <c r="A41" s="192">
@@ -25188,10 +25105,10 @@
       <c r="K41" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="228"/>
+      <c r="L41" s="225"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="222"/>
+      <c r="A42" s="221"/>
       <c r="B42" s="199"/>
       <c r="C42" s="199"/>
       <c r="D42" s="199"/>
@@ -25202,7 +25119,7 @@
       <c r="I42" s="199"/>
       <c r="J42" s="199"/>
       <c r="K42" s="199"/>
-      <c r="L42" s="227"/>
+      <c r="L42" s="224"/>
     </row>
     <row r="43" spans="1:12" ht="24">
       <c r="A43" s="192">
@@ -25236,13 +25153,13 @@
       <c r="K43" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="191"/>
+      <c r="L43" s="249"/>
     </row>
     <row r="44" spans="1:12" ht="36">
       <c r="A44" s="194">
         <v>121</v>
       </c>
-      <c r="B44" s="231" t="s">
+      <c r="B44" s="228" t="s">
         <v>470</v>
       </c>
       <c r="C44" s="195" t="s">
@@ -25264,7 +25181,7 @@
       <c r="I44" s="195" t="s">
         <v>402</v>
       </c>
-      <c r="J44" s="232" t="s">
+      <c r="J44" s="229" t="s">
         <v>472</v>
       </c>
       <c r="K44" s="196" t="s">
@@ -25273,102 +25190,102 @@
       <c r="L44" s="193"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="B47" s="252" t="s">
+      <c r="B47" s="103" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="B48" s="252" t="s">
+      <c r="B48" s="103" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="252" t="s">
+      <c r="B49" s="103" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="252" t="s">
+      <c r="B50" s="103" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="252" t="s">
+      <c r="B51" s="103" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="252" t="s">
+      <c r="B52" s="103" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="252" t="s">
+      <c r="B53" s="103" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="252" t="s">
+      <c r="B54" s="103" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="252" t="s">
+      <c r="B55" s="103" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="252" t="s">
+      <c r="B56" s="103" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="252" t="s">
+      <c r="B57" s="103" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="252" t="s">
+      <c r="B58" s="103" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="252" t="s">
+      <c r="B59" s="103" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="252" t="s">
+      <c r="B60" s="103" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="252" t="s">
+      <c r="B61" s="103" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="252" t="s">
+      <c r="B62" s="103" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="252" t="s">
+      <c r="B63" s="103" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="252" t="s">
+      <c r="B64" s="103" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="252" t="s">
+      <c r="B65" s="103" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="252" t="s">
+      <c r="B66" s="103" t="s">
         <v>1123</v>
       </c>
     </row>
@@ -25428,17 +25345,17 @@
       <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15">
       <c r="A1" s="76" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15">
+    <row r="3" spans="1:15">
       <c r="A3" s="76" t="s">
         <v>836</v>
       </c>
@@ -25451,7 +25368,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:15">
       <c r="N9" s="76">
         <v>10</v>
       </c>
@@ -25459,7 +25376,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15">
+    <row r="10" spans="1:15">
       <c r="N10" s="76">
         <v>10701</v>
       </c>
@@ -25467,7 +25384,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15">
+    <row r="11" spans="1:15">
       <c r="N11" s="76">
         <v>4663</v>
       </c>
@@ -25475,7 +25392,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15">
+    <row r="12" spans="1:15">
       <c r="N12" s="76">
         <v>982</v>
       </c>
@@ -25483,7 +25400,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15">
+    <row r="13" spans="1:15">
       <c r="N13" s="77" t="s">
         <v>843</v>
       </c>
@@ -25491,28 +25408,28 @@
         <v>844</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15">
+    <row r="14" spans="1:15">
       <c r="N14" s="76"/>
     </row>
-    <row r="15" spans="1:15" ht="15">
+    <row r="15" spans="1:15">
       <c r="N15" s="76"/>
     </row>
-    <row r="16" spans="1:15" ht="15">
+    <row r="16" spans="1:15">
       <c r="N16" s="76"/>
     </row>
-    <row r="17" spans="1:14" ht="15">
+    <row r="17" spans="1:14">
       <c r="N17" s="76"/>
     </row>
-    <row r="18" spans="1:14" ht="15">
+    <row r="18" spans="1:14">
       <c r="N18" s="76"/>
     </row>
-    <row r="19" spans="1:14" ht="15">
+    <row r="19" spans="1:14">
       <c r="N19" s="76"/>
     </row>
-    <row r="20" spans="1:14" ht="15">
+    <row r="20" spans="1:14">
       <c r="N20" s="76"/>
     </row>
-    <row r="23" spans="1:14" ht="15">
+    <row r="23" spans="1:14">
       <c r="A23" s="76" t="s">
         <v>845</v>
       </c>
@@ -25520,7 +25437,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15">
+    <row r="44" spans="1:15">
       <c r="A44" s="76" t="s">
         <v>847</v>
       </c>
@@ -25531,7 +25448,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9">
       <c r="A66" s="76" t="s">
         <v>850</v>
       </c>
@@ -25539,7 +25456,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15">
+    <row r="88" spans="1:16">
       <c r="A88" s="76" t="s">
         <v>852</v>
       </c>
@@ -25550,17 +25467,17 @@
         <v>854</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9">
       <c r="A107" s="76" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9">
       <c r="I108" s="76" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15">
+    <row r="127" spans="1:1">
       <c r="A127" s="76" t="s">
         <v>857</v>
       </c>
@@ -25602,17 +25519,17 @@
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
-    <col min="10" max="12" width="22.125" customWidth="1"/>
-    <col min="14" max="14" width="63.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.75" customWidth="1"/>
-    <col min="17" max="17" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" customWidth="1"/>
+    <col min="6" max="6" width="25.08984375" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" customWidth="1"/>
+    <col min="10" max="12" width="22.08984375" customWidth="1"/>
+    <col min="14" max="14" width="63.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7265625" customWidth="1"/>
+    <col min="17" max="17" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -30056,13 +29973,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.125" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="39.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -30147,10 +30064,10 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" customWidth="1"/>
+    <col min="11" max="11" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="17" spans="1:12">
@@ -30203,29 +30120,29 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.125" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.75" customWidth="1"/>
-    <col min="21" max="21" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7265625" customWidth="1"/>
+    <col min="21" max="21" width="27.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -30293,7 +30210,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15">
+    <row r="2" spans="1:21">
       <c r="B2" s="131">
         <v>44968</v>
       </c>
@@ -30328,7 +30245,7 @@
         <v>0.60550925925925925</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15">
+    <row r="3" spans="1:21">
       <c r="B3" s="131">
         <v>44968</v>
       </c>
@@ -30363,7 +30280,7 @@
         <v>0.61068287037037039</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15">
+    <row r="4" spans="1:21">
       <c r="B4" s="131">
         <v>44968</v>
       </c>
@@ -30398,7 +30315,7 @@
         <v>0.61211805555555554</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15">
+    <row r="5" spans="1:21">
       <c r="B5" s="131">
         <v>44968</v>
       </c>
@@ -30423,7 +30340,7 @@
       </c>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:21" ht="15">
+    <row r="6" spans="1:21">
       <c r="B6" s="131">
         <v>44968</v>
       </c>
@@ -30448,7 +30365,7 @@
       </c>
       <c r="Q6" s="17"/>
     </row>
-    <row r="7" spans="1:21" ht="15">
+    <row r="7" spans="1:21">
       <c r="B7" s="131">
         <v>44968</v>
       </c>
@@ -30488,7 +30405,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15">
+    <row r="16" spans="1:21" ht="15.5">
       <c r="B16" s="74"/>
     </row>
     <row r="17" spans="1:1">
@@ -30516,68 +30433,68 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:53" ht="15">
-      <c r="A1" s="233" t="s">
+    <row r="1" spans="1:53">
+      <c r="A1" s="230" t="s">
         <v>1054</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="234"/>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="234"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="235"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="231"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="231"/>
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="232"/>
       <c r="X1" s="64"/>
       <c r="Y1" s="64"/>
       <c r="Z1" s="64"/>
-      <c r="AA1" s="236" t="s">
+      <c r="AA1" s="233" t="s">
         <v>1055</v>
       </c>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="237"/>
-      <c r="AD1" s="237"/>
-      <c r="AE1" s="237"/>
-      <c r="AF1" s="237"/>
-      <c r="AG1" s="237"/>
-      <c r="AH1" s="237"/>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="237"/>
-      <c r="AK1" s="237"/>
-      <c r="AL1" s="237"/>
-      <c r="AM1" s="237"/>
-      <c r="AN1" s="237"/>
-      <c r="AO1" s="237"/>
-      <c r="AP1" s="237"/>
-      <c r="AQ1" s="237"/>
-      <c r="AR1" s="237"/>
-      <c r="AS1" s="237"/>
-      <c r="AT1" s="237"/>
-      <c r="AU1" s="237"/>
-      <c r="AV1" s="237"/>
-      <c r="AW1" s="237"/>
-      <c r="AX1" s="237"/>
-      <c r="AY1" s="237"/>
-      <c r="AZ1" s="238"/>
+      <c r="AB1" s="234"/>
+      <c r="AC1" s="234"/>
+      <c r="AD1" s="234"/>
+      <c r="AE1" s="234"/>
+      <c r="AF1" s="234"/>
+      <c r="AG1" s="234"/>
+      <c r="AH1" s="234"/>
+      <c r="AI1" s="234"/>
+      <c r="AJ1" s="234"/>
+      <c r="AK1" s="234"/>
+      <c r="AL1" s="234"/>
+      <c r="AM1" s="234"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="234"/>
+      <c r="AT1" s="234"/>
+      <c r="AU1" s="234"/>
+      <c r="AV1" s="234"/>
+      <c r="AW1" s="234"/>
+      <c r="AX1" s="234"/>
+      <c r="AY1" s="234"/>
+      <c r="AZ1" s="235"/>
       <c r="BA1" s="65"/>
     </row>
-    <row r="2" spans="1:53" ht="120">
+    <row r="2" spans="1:53" ht="116">
       <c r="A2" s="66" t="s">
         <v>477</v>
       </c>
@@ -30850,7 +30767,7 @@
       <c r="AZ4" s="65"/>
       <c r="BA4" s="65"/>
     </row>
-    <row r="5" spans="1:53" ht="15">
+    <row r="5" spans="1:53">
       <c r="A5" s="70" t="s">
         <v>1076</v>
       </c>
@@ -31074,7 +30991,7 @@
       <c r="AZ8" s="65"/>
       <c r="BA8" s="65"/>
     </row>
-    <row r="9" spans="1:53" ht="15">
+    <row r="9" spans="1:53">
       <c r="A9" s="72" t="s">
         <v>1078</v>
       </c>
@@ -31495,9 +31412,9 @@
       <selection activeCell="Y5" sqref="Y5:AT6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:46" ht="120">
+    <row r="1" spans="1:46" ht="116">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -31832,16 +31749,16 @@
   <sheetViews>
     <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="23.875" customWidth="1"/>
-    <col min="16" max="16" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" customWidth="1"/>
+    <col min="5" max="5" width="23.90625" customWidth="1"/>
+    <col min="16" max="16" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="120">
+    <row r="1" spans="1:46" ht="116">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -32162,7 +32079,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="120">
+    <row r="13" spans="1:46" ht="116">
       <c r="A13" s="53" t="s">
         <v>1066</v>
       </c>
@@ -32258,25 +32175,25 @@
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="10" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.25" customWidth="1"/>
-    <col min="16" max="16" width="14.25" customWidth="1"/>
-    <col min="17" max="17" width="19.125" customWidth="1"/>
-    <col min="18" max="18" width="16.875" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.125" customWidth="1"/>
-    <col min="23" max="23" width="19.375" customWidth="1"/>
-    <col min="24" max="24" width="31.375" customWidth="1"/>
-    <col min="25" max="25" width="23.875" customWidth="1"/>
+    <col min="10" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.26953125" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" customWidth="1"/>
+    <col min="17" max="17" width="19.08984375" customWidth="1"/>
+    <col min="18" max="18" width="16.90625" customWidth="1"/>
+    <col min="19" max="19" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.08984375" customWidth="1"/>
+    <col min="23" max="23" width="19.36328125" customWidth="1"/>
+    <col min="24" max="24" width="31.36328125" customWidth="1"/>
+    <col min="25" max="25" width="23.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="103.5" customHeight="1">
@@ -32666,13 +32583,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="16" max="16" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="16" max="16" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" spans="1:16" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -32727,7 +32644,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="45">
+    <row r="5" spans="1:16" ht="29">
       <c r="A5" s="150" t="s">
         <v>477</v>
       </c>
@@ -32948,7 +32865,7 @@
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32962,12 +32879,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="16" max="16" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" spans="1:16" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -33022,7 +32939,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="45">
+    <row r="5" spans="1:16" ht="29">
       <c r="A5" s="144" t="s">
         <v>477</v>
       </c>
@@ -33240,12 +33157,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="16" max="16" width="13.625" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" spans="1:16" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -33300,7 +33217,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="45">
+    <row r="6" spans="1:16" ht="29">
       <c r="A6" s="144" t="s">
         <v>477</v>
       </c>
@@ -33518,9 +33435,9 @@
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" spans="1:16" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -33625,7 +33542,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="45">
+    <row r="6" spans="1:16" ht="29">
       <c r="A6" s="144" t="s">
         <v>477</v>
       </c>
@@ -33843,23 +33760,23 @@
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.625" customWidth="1"/>
-    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.375" customWidth="1"/>
-    <col min="26" max="26" width="13.875" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6328125" customWidth="1"/>
+    <col min="19" max="19" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.08984375" customWidth="1"/>
+    <col min="22" max="22" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.36328125" customWidth="1"/>
+    <col min="26" max="26" width="13.90625" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="60">
+    <row r="1" spans="1:27" ht="29">
       <c r="A1" s="57" t="s">
         <v>1105</v>
       </c>
@@ -33942,7 +33859,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="50" customFormat="1" ht="42.75">
+    <row r="2" spans="1:27" s="50" customFormat="1" ht="29">
       <c r="A2" s="61" t="s">
         <v>1109</v>
       </c>
@@ -34030,7 +33947,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="45">
+    <row r="6" spans="1:27" ht="43.5">
       <c r="A6" s="144" t="s">
         <v>477</v>
       </c>
@@ -34304,15 +34221,15 @@
       <selection activeCell="P7" sqref="P7:W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="60.75" customHeight="1">
@@ -34391,7 +34308,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="45">
+    <row r="5" spans="1:23" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -34704,18 +34621,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45">
+    <row r="1" spans="1:23" ht="43.5">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -34791,7 +34708,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="45">
+    <row r="5" spans="1:23" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -35104,18 +35021,18 @@
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45">
+    <row r="1" spans="1:23" ht="43.5">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -35191,7 +35108,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="45">
+    <row r="5" spans="1:23" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -35524,18 +35441,18 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45">
+    <row r="1" spans="1:23" ht="43.5">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -35611,7 +35528,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="45">
+    <row r="5" spans="1:23" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -35926,24 +35843,24 @@
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="120">
+    <row r="1" spans="1:46" ht="101.5">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -36088,7 +36005,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="45">
+    <row r="5" spans="1:46" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -36610,24 +36527,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="120">
+    <row r="1" spans="1:46" ht="101.5">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -36772,7 +36689,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="45">
+    <row r="5" spans="1:46" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -37369,7 +37286,7 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37383,9 +37300,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" spans="1:16" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -37437,7 +37354,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="45">
+    <row r="5" spans="1:16" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -37694,18 +37611,18 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45">
+    <row r="1" spans="1:20" ht="29">
       <c r="A1" s="57" t="s">
         <v>1105</v>
       </c>
@@ -37766,7 +37683,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="45">
+    <row r="5" spans="1:20" ht="29">
       <c r="C5" s="52" t="s">
         <v>477</v>
       </c>
@@ -38078,12 +37995,12 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45">
+    <row r="1" spans="1:20" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -38138,7 +38055,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="45">
+    <row r="5" spans="1:20" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -38472,18 +38389,18 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.75" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7265625" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45">
+    <row r="1" spans="1:20" ht="43.5">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -38550,7 +38467,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="45">
+    <row r="5" spans="1:20" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -38846,17 +38763,17 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45">
+    <row r="1" spans="1:20" ht="43.5">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -38923,7 +38840,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="45">
+    <row r="5" spans="1:20" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -39219,17 +39136,17 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45">
+    <row r="1" spans="1:17" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -39334,7 +39251,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="45">
+    <row r="6" spans="1:17" ht="29">
       <c r="A6" s="52" t="s">
         <v>477</v>
       </c>
@@ -39613,17 +39530,17 @@
       <selection activeCell="P7" sqref="P7:Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45">
+    <row r="1" spans="1:17" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -39675,7 +39592,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="45">
+    <row r="5" spans="1:17" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -39946,17 +39863,17 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45">
+    <row r="1" spans="1:17" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -40014,7 +39931,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="45">
+    <row r="5" spans="1:17" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -40285,13 +40202,13 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45">
+    <row r="1" spans="1:17" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -40349,7 +40266,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="45">
+    <row r="5" spans="1:17" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -40631,9 +40548,9 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="45">
+    <row r="1" spans="1:17" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -40738,7 +40655,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="45">
+    <row r="6" spans="1:17" ht="29">
       <c r="A6" s="52" t="s">
         <v>477</v>
       </c>
@@ -41013,24 +40930,24 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.875" customWidth="1"/>
-    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.90625" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="6.875" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
@@ -41174,9 +41091,9 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="45">
+    <row r="1" spans="1:17" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -41281,7 +41198,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="45">
+    <row r="6" spans="1:17" ht="29">
       <c r="A6" s="52" t="s">
         <v>477</v>
       </c>
@@ -41560,9 +41477,9 @@
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="45">
+    <row r="1" spans="1:17" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -41661,7 +41578,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="45">
+    <row r="7" spans="1:17" ht="29">
       <c r="A7" s="52" t="s">
         <v>477</v>
       </c>
@@ -41940,9 +41857,9 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="45">
+    <row r="1" spans="1:17" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -41994,7 +41911,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="45">
+    <row r="6" spans="1:17" ht="29">
       <c r="A6" s="52" t="s">
         <v>477</v>
       </c>
@@ -42273,13 +42190,13 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="15" max="15" width="14.375" customWidth="1"/>
-    <col min="16" max="16" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="14.36328125" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45">
+    <row r="1" spans="1:17" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -42331,7 +42248,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="45">
+    <row r="7" spans="1:17" ht="29">
       <c r="A7" s="52" t="s">
         <v>477</v>
       </c>
@@ -42610,14 +42527,14 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="16" max="16" width="17.625" customWidth="1"/>
-    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="17.6328125" customWidth="1"/>
+    <col min="17" max="17" width="14.08984375" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45">
+    <row r="1" spans="1:20" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -42746,7 +42663,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="45">
+    <row r="6" spans="1:20" ht="29">
       <c r="A6" s="52" t="s">
         <v>477</v>
       </c>
@@ -43025,13 +42942,13 @@
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="16" max="16" width="14.875" customWidth="1"/>
-    <col min="17" max="17" width="13.125" customWidth="1"/>
+    <col min="16" max="16" width="14.90625" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="60">
+    <row r="1" spans="1:20" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -43098,7 +43015,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="45">
+    <row r="5" spans="1:20" ht="29">
       <c r="A5" s="52" t="s">
         <v>477</v>
       </c>
@@ -43377,14 +43294,14 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="16" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="20" max="20" width="12.625" customWidth="1"/>
+    <col min="20" max="20" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45">
+    <row r="1" spans="1:20" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -43513,7 +43430,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="45">
+    <row r="6" spans="1:20" ht="29">
       <c r="A6" s="52" t="s">
         <v>477</v>
       </c>
@@ -43792,16 +43709,16 @@
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="16" max="16" width="14.625" customWidth="1"/>
-    <col min="17" max="17" width="14.875" customWidth="1"/>
-    <col min="20" max="20" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" customWidth="1"/>
+    <col min="16" max="16" width="14.6328125" customWidth="1"/>
+    <col min="17" max="17" width="14.90625" customWidth="1"/>
+    <col min="20" max="20" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45">
+    <row r="1" spans="1:20" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -43930,7 +43847,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="45">
+    <row r="6" spans="1:20" ht="29">
       <c r="A6" s="52" t="s">
         <v>477</v>
       </c>
@@ -44209,13 +44126,13 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45">
+    <row r="1" spans="1:17" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -44320,7 +44237,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="45">
+    <row r="6" spans="1:17" ht="29">
       <c r="A6" s="52" t="s">
         <v>477</v>
       </c>
@@ -44595,13 +44512,13 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45">
+    <row r="1" spans="1:20" ht="29">
       <c r="A1" s="57" t="s">
         <v>1105</v>
       </c>
@@ -44870,7 +44787,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="45">
+    <row r="15" spans="1:20" ht="29">
       <c r="E15" s="52" t="s">
         <v>477</v>
       </c>
@@ -44936,24 +44853,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -45095,9 +45012,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" spans="1:16" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -45147,7 +45064,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:16">
       <c r="A2" s="147"/>
       <c r="B2" s="147"/>
       <c r="C2" s="147"/>
@@ -45386,9 +45303,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" spans="1:16" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -45493,7 +45410,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="45">
+    <row r="6" spans="1:16" ht="29">
       <c r="A6" s="52" t="s">
         <v>477</v>
       </c>
@@ -45761,12 +45678,12 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="16" max="16" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" spans="1:16" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -45816,7 +45733,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:16">
       <c r="A2" s="147"/>
       <c r="B2" s="147"/>
       <c r="C2" s="147"/>
@@ -46057,12 +45974,12 @@
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="16" max="16" width="13.125" customWidth="1"/>
+    <col min="16" max="16" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" spans="1:16" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -46335,9 +46252,9 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" spans="1:16" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -46610,9 +46527,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="45">
+    <row r="1" spans="1:15" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -46871,12 +46788,12 @@
       <selection activeCell="E9" sqref="E9:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="16" max="16" width="19.25" customWidth="1"/>
+    <col min="16" max="16" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" spans="1:16" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -47199,17 +47116,17 @@
       <selection activeCell="O4" sqref="O4:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="15" max="15" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="15" max="15" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.36328125" customWidth="1"/>
     <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="25" max="25" width="14.375" customWidth="1"/>
-    <col min="28" max="28" width="14.875" customWidth="1"/>
+    <col min="25" max="25" width="14.36328125" customWidth="1"/>
+    <col min="28" max="28" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="120">
+    <row r="1" spans="1:56" ht="116">
       <c r="A1" s="57"/>
       <c r="B1" s="58"/>
       <c r="C1" s="57"/>
@@ -47668,9 +47585,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="60">
+    <row r="1" spans="1:24" ht="58">
       <c r="A1" s="53" t="s">
         <v>1066</v>
       </c>
@@ -48129,22 +48046,22 @@
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="28" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="28" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="75">
+    <row r="1" spans="1:36" ht="72.5">
       <c r="A1" s="53" t="s">
         <v>477</v>
       </c>
@@ -48733,9 +48650,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -48759,53 +48676,53 @@
       <selection activeCell="R2" sqref="R2:AP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.90625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.36328125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.36328125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="39" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="72.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="72.90625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="30" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="60">
+    <row r="1" spans="1:42" ht="43.5">
       <c r="A1" s="54" t="s">
         <v>477</v>
       </c>
@@ -49395,13 +49312,13 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="16" max="16" width="16.875" customWidth="1"/>
+    <col min="16" max="16" width="16.90625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45">
+    <row r="1" spans="1:17" ht="29">
       <c r="A1" s="52" t="s">
         <v>477</v>
       </c>
@@ -49688,17 +49605,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.375" customWidth="1"/>
-    <col min="16" max="16" width="14.75" customWidth="1"/>
+    <col min="15" max="15" width="18.36328125" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="17.75" customWidth="1"/>
-    <col min="22" max="22" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7265625" customWidth="1"/>
+    <col min="22" max="22" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5">
+    <row r="1" spans="1:24" ht="26">
       <c r="A1" s="142" t="s">
         <v>1121</v>
       </c>
@@ -49708,29 +49625,29 @@
       <c r="E1" s="142"/>
       <c r="F1" s="142"/>
       <c r="G1" s="142"/>
-      <c r="H1" s="239" t="s">
+      <c r="H1" s="236" t="s">
         <v>1122</v>
       </c>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="239" t="s">
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236" t="s">
         <v>1123</v>
       </c>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-    </row>
-    <row r="2" spans="1:24" ht="45">
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+    </row>
+    <row r="2" spans="1:24" ht="29">
       <c r="A2" s="52" t="s">
         <v>477</v>
       </c>
@@ -49804,7 +49721,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15">
+    <row r="3" spans="1:24">
       <c r="A3" s="17">
         <v>13</v>
       </c>
@@ -49878,7 +49795,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15">
+    <row r="4" spans="1:24">
       <c r="A4" s="17">
         <v>95</v>
       </c>
@@ -49894,7 +49811,7 @@
       <c r="S4" s="133"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="15">
+    <row r="5" spans="1:24">
       <c r="A5" s="17">
         <v>105</v>
       </c>
@@ -49907,7 +49824,7 @@
       <c r="S5" s="133"/>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:24" ht="15">
+    <row r="6" spans="1:24">
       <c r="A6" s="17">
         <v>122</v>
       </c>
@@ -49920,7 +49837,7 @@
       <c r="S6" s="133"/>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="1:24" ht="15">
+    <row r="7" spans="1:24">
       <c r="A7" s="17">
         <v>127</v>
       </c>
@@ -49933,7 +49850,7 @@
       <c r="S7" s="133"/>
       <c r="T7" s="5"/>
     </row>
-    <row r="8" spans="1:24" ht="15">
+    <row r="8" spans="1:24">
       <c r="A8" s="17">
         <v>133</v>
       </c>
@@ -49946,7 +49863,7 @@
       <c r="S8" s="133"/>
       <c r="T8" s="5"/>
     </row>
-    <row r="9" spans="1:24" ht="15">
+    <row r="9" spans="1:24">
       <c r="B9" s="5"/>
       <c r="C9" s="140"/>
       <c r="E9" s="17"/>
@@ -49956,7 +49873,7 @@
       <c r="S9" s="133"/>
       <c r="T9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="15">
+    <row r="10" spans="1:24">
       <c r="B10" s="5"/>
       <c r="C10" s="140"/>
       <c r="E10" s="17"/>
@@ -49966,7 +49883,7 @@
       <c r="S10" s="133"/>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="15">
+    <row r="11" spans="1:24">
       <c r="B11" s="5"/>
       <c r="C11" s="140"/>
       <c r="E11" s="17"/>
@@ -49976,7 +49893,7 @@
       <c r="S11" s="133"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="1:24" ht="15">
+    <row r="12" spans="1:24">
       <c r="B12" s="5"/>
       <c r="C12" s="140"/>
       <c r="E12" s="17"/>
@@ -50015,25 +49932,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="32.25" customWidth="1"/>
-    <col min="11" max="11" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="32.26953125" customWidth="1"/>
+    <col min="11" max="11" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.25">
-      <c r="A2" s="240" t="s">
+    <row r="2" spans="1:11" ht="21">
+      <c r="A2" s="237" t="s">
         <v>1131</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -50075,7 +49992,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:11">
       <c r="A14" s="17" t="s">
         <v>678</v>
       </c>
@@ -50110,7 +50027,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15">
+    <row r="15" spans="1:11">
       <c r="A15" s="18">
         <v>45444</v>
       </c>
@@ -50145,7 +50062,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:11">
       <c r="A16" s="18">
         <v>45444</v>
       </c>
@@ -50180,7 +50097,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15">
+    <row r="17" spans="1:11">
       <c r="A17" s="18">
         <v>45444</v>
       </c>
@@ -50215,7 +50132,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15">
+    <row r="18" spans="1:11">
       <c r="A18" s="18">
         <v>45444</v>
       </c>
@@ -50250,7 +50167,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15">
+    <row r="19" spans="1:11">
       <c r="A19" s="18">
         <v>45444</v>
       </c>
@@ -50285,7 +50202,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15">
+    <row r="20" spans="1:11">
       <c r="A20" s="18">
         <v>45444</v>
       </c>
@@ -50320,7 +50237,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15">
+    <row r="21" spans="1:11">
       <c r="A21" s="18">
         <v>45444</v>
       </c>
@@ -50355,7 +50272,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15">
+    <row r="22" spans="1:11">
       <c r="A22" s="18">
         <v>45444</v>
       </c>
@@ -50390,7 +50307,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15">
+    <row r="23" spans="1:11">
       <c r="A23" s="18">
         <v>45444</v>
       </c>
@@ -50425,7 +50342,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15">
+    <row r="24" spans="1:11">
       <c r="A24" s="18">
         <v>45444</v>
       </c>
@@ -50460,7 +50377,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15">
+    <row r="25" spans="1:11">
       <c r="A25" s="18">
         <v>45444</v>
       </c>
@@ -50495,7 +50412,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15">
+    <row r="26" spans="1:11">
       <c r="A26" s="18">
         <v>45444</v>
       </c>
@@ -50530,7 +50447,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15">
+    <row r="27" spans="1:11">
       <c r="A27" s="18">
         <v>45444</v>
       </c>
@@ -50565,7 +50482,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15">
+    <row r="28" spans="1:11">
       <c r="A28" s="18">
         <v>45444</v>
       </c>
@@ -50622,46 +50539,46 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="30.25" customWidth="1"/>
-    <col min="14" max="15" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.26953125" customWidth="1"/>
+    <col min="14" max="15" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25">
-      <c r="A1" s="241" t="s">
+    <row r="1" spans="1:19" ht="23.5">
+      <c r="A1" s="238" t="s">
         <v>1151</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="241"/>
-      <c r="O1" s="241"/>
-      <c r="P1" s="241"/>
-      <c r="Q1" s="241"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -51157,23 +51074,23 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
@@ -51228,24 +51145,24 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="23.25">
-      <c r="A23" s="242" t="s">
+    <row r="23" spans="1:16" ht="23.5">
+      <c r="A23" s="239" t="s">
         <v>1217</v>
       </c>
-      <c r="B23" s="242"/>
-      <c r="C23" s="242"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="242"/>
-      <c r="I23" s="242"/>
-      <c r="J23" s="242"/>
-      <c r="K23" s="242"/>
-      <c r="L23" s="242"/>
-      <c r="M23" s="242"/>
-      <c r="N23" s="242"/>
-      <c r="O23" s="242"/>
+      <c r="B23" s="239"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="239"/>
+      <c r="F23" s="239"/>
+      <c r="G23" s="239"/>
+      <c r="H23" s="239"/>
+      <c r="I23" s="239"/>
+      <c r="J23" s="239"/>
+      <c r="K23" s="239"/>
+      <c r="L23" s="239"/>
+      <c r="M23" s="239"/>
+      <c r="N23" s="239"/>
+      <c r="O23" s="239"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
@@ -51616,24 +51533,24 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
-    <col min="4" max="4" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25">
-      <c r="A2" s="243" t="s">
+    <row r="2" spans="1:6" ht="21">
+      <c r="A2" s="240" t="s">
         <v>1257</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -51705,29 +51622,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.25" customWidth="1"/>
+    <col min="15" max="15" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.26953125" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.90625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -51980,9 +51897,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="15">
+    <row r="1" spans="1:30">
       <c r="A1" s="46" t="s">
         <v>497</v>
       </c>
@@ -52074,7 +51991,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15">
+    <row r="2" spans="1:30">
       <c r="A2" s="17" t="s">
         <v>526</v>
       </c>
@@ -52148,7 +52065,7 @@
       <c r="Y2" s="17"/>
       <c r="Z2" s="17"/>
     </row>
-    <row r="3" spans="1:30" ht="15">
+    <row r="3" spans="1:30">
       <c r="A3" s="17" t="s">
         <v>526</v>
       </c>
@@ -52222,7 +52139,7 @@
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
     </row>
-    <row r="4" spans="1:30" ht="15">
+    <row r="4" spans="1:30">
       <c r="A4" s="17" t="s">
         <v>526</v>
       </c>
@@ -52296,13 +52213,13 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
     </row>
-    <row r="7" spans="1:30" ht="15">
+    <row r="7" spans="1:30">
       <c r="A7" s="9" t="s">
         <v>1287</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:30" ht="57">
+    <row r="8" spans="1:30" ht="58">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
         <v>1288</v>
@@ -52322,7 +52239,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5">
@@ -52395,7 +52312,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -52410,11 +52327,11 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -52491,13 +52408,13 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -52618,14 +52535,14 @@
       <c r="E6" s="10" t="s">
         <v>1301</v>
       </c>
-      <c r="F6" s="244" t="s">
+      <c r="F6" s="241" t="s">
         <v>1302</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="244"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -52655,13 +52572,13 @@
       <selection activeCell="B7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="2" max="3" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -52726,15 +52643,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="48.375" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="48.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -52814,11 +52731,11 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -52875,9 +52792,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -52921,11 +52838,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -52975,11 +52892,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -53103,14 +53020,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -53198,10 +53115,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -53210,11 +53127,11 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="242" t="s">
         <v>1353</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -53289,35 +53206,35 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="51.75" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="31.625" customWidth="1"/>
-    <col min="8" max="8" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="41.125" customWidth="1"/>
-    <col min="10" max="10" width="23.375" customWidth="1"/>
-    <col min="11" max="11" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.625" customWidth="1"/>
-    <col min="14" max="14" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7265625" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" customWidth="1"/>
+    <col min="5" max="5" width="23.08984375" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" customWidth="1"/>
+    <col min="7" max="7" width="31.6328125" customWidth="1"/>
+    <col min="8" max="8" width="22.08984375" customWidth="1"/>
+    <col min="9" max="9" width="41.08984375" customWidth="1"/>
+    <col min="10" max="10" width="23.36328125" customWidth="1"/>
+    <col min="11" max="11" width="38.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.6328125" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="39" customWidth="1"/>
-    <col min="17" max="17" width="27.75" customWidth="1"/>
-    <col min="19" max="19" width="33.125" customWidth="1"/>
-    <col min="23" max="23" width="24.75" customWidth="1"/>
-    <col min="25" max="25" width="33.125" customWidth="1"/>
-    <col min="26" max="26" width="19.75" customWidth="1"/>
-    <col min="27" max="27" width="24.625" customWidth="1"/>
+    <col min="17" max="17" width="27.7265625" customWidth="1"/>
+    <col min="19" max="19" width="33.08984375" customWidth="1"/>
+    <col min="23" max="23" width="24.7265625" customWidth="1"/>
+    <col min="25" max="25" width="33.08984375" customWidth="1"/>
+    <col min="26" max="26" width="19.7265625" customWidth="1"/>
+    <col min="27" max="27" width="24.6328125" customWidth="1"/>
     <col min="28" max="28" width="28" customWidth="1"/>
     <col min="29" max="29" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="30">
+    <row r="1" spans="1:29" ht="43.5">
       <c r="A1" s="46" t="s">
         <v>497</v>
       </c>
@@ -53406,7 +53323,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15">
+    <row r="2" spans="1:29">
       <c r="A2" s="17" t="s">
         <v>526</v>
       </c>
@@ -53480,7 +53397,7 @@
       <c r="Y2" s="17"/>
       <c r="Z2" s="17"/>
     </row>
-    <row r="3" spans="1:29" ht="15">
+    <row r="3" spans="1:29">
       <c r="A3" s="17" t="s">
         <v>526</v>
       </c>
@@ -53554,7 +53471,7 @@
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
     </row>
-    <row r="4" spans="1:29" ht="15">
+    <row r="4" spans="1:29">
       <c r="A4" s="17" t="s">
         <v>526</v>
       </c>
@@ -53628,7 +53545,7 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
     </row>
-    <row r="5" spans="1:29" ht="15">
+    <row r="5" spans="1:29">
       <c r="A5" s="17" t="s">
         <v>526</v>
       </c>
@@ -53702,7 +53619,7 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
     </row>
-    <row r="6" spans="1:29" ht="15">
+    <row r="6" spans="1:29">
       <c r="A6" s="17" t="s">
         <v>526</v>
       </c>
@@ -53776,7 +53693,7 @@
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
     </row>
-    <row r="7" spans="1:29" ht="15">
+    <row r="7" spans="1:29">
       <c r="A7" s="17" t="s">
         <v>526</v>
       </c>
@@ -53850,7 +53767,7 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
     </row>
-    <row r="8" spans="1:29" ht="15">
+    <row r="8" spans="1:29">
       <c r="A8" s="17" t="s">
         <v>526</v>
       </c>
@@ -53924,7 +53841,7 @@
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="15">
+    <row r="9" spans="1:29">
       <c r="A9" s="17" t="s">
         <v>526</v>
       </c>
@@ -53998,7 +53915,7 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="15">
+    <row r="10" spans="1:29">
       <c r="A10" s="17" t="s">
         <v>526</v>
       </c>
@@ -54072,7 +53989,7 @@
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="15">
+    <row r="11" spans="1:29">
       <c r="A11" s="17" t="s">
         <v>526</v>
       </c>
@@ -54146,7 +54063,7 @@
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="15">
+    <row r="12" spans="1:29">
       <c r="A12" s="17" t="s">
         <v>526</v>
       </c>
@@ -54241,9 +54158,9 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -54295,24 +54212,24 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -54388,20 +54305,20 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="9" max="9" width="38.75" customWidth="1"/>
+    <col min="9" max="9" width="38.7265625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="23.75" customWidth="1"/>
-    <col min="13" max="13" width="28.125" customWidth="1"/>
-    <col min="14" max="14" width="58.25" customWidth="1"/>
-    <col min="15" max="15" width="22.375" customWidth="1"/>
-    <col min="16" max="16" width="27.625" customWidth="1"/>
-    <col min="17" max="17" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" customWidth="1"/>
+    <col min="13" max="13" width="28.08984375" customWidth="1"/>
+    <col min="14" max="14" width="58.26953125" customWidth="1"/>
+    <col min="15" max="15" width="22.36328125" customWidth="1"/>
+    <col min="16" max="16" width="27.6328125" customWidth="1"/>
+    <col min="17" max="17" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="81" customHeight="1">
@@ -54522,7 +54439,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15">
+    <row r="3" spans="1:19">
       <c r="A3" s="17">
         <v>861595169</v>
       </c>
@@ -54582,12 +54499,12 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" customHeight="1">
-      <c r="R4" s="246" t="s">
+      <c r="R4" s="243" t="s">
         <v>1407</v>
       </c>
-      <c r="S4" s="246"/>
-    </row>
-    <row r="6" spans="1:19" ht="15">
+      <c r="S4" s="243"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="7" t="s">
         <v>1287</v>
       </c>
@@ -54598,7 +54515,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15">
+    <row r="8" spans="1:19">
       <c r="A8" s="44"/>
       <c r="B8" t="s">
         <v>1408</v>
@@ -54628,17 +54545,17 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -54722,7 +54639,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -54766,33 +54683,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.625" customWidth="1"/>
-    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.625" customWidth="1"/>
-    <col min="14" max="14" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" customWidth="1"/>
+    <col min="12" max="12" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6328125" customWidth="1"/>
+    <col min="14" max="14" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="28" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="22.75" customWidth="1"/>
-    <col min="21" max="21" width="41.75" customWidth="1"/>
-    <col min="22" max="22" width="10.375" customWidth="1"/>
+    <col min="20" max="20" width="22.7265625" customWidth="1"/>
+    <col min="21" max="21" width="41.7265625" customWidth="1"/>
+    <col min="22" max="22" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15">
+    <row r="1" spans="1:22">
       <c r="A1" s="17" t="s">
         <v>1417</v>
       </c>
@@ -54860,7 +54777,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15">
+    <row r="2" spans="1:22">
       <c r="A2" s="18">
         <v>45350</v>
       </c>
@@ -54926,7 +54843,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15">
+    <row r="3" spans="1:22">
       <c r="A3" s="18">
         <v>45350</v>
       </c>
@@ -54992,7 +54909,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15">
+    <row r="4" spans="1:22">
       <c r="A4" s="18">
         <v>45350</v>
       </c>
@@ -55058,7 +54975,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15">
+    <row r="5" spans="1:22">
       <c r="A5" s="18">
         <v>45350</v>
       </c>
@@ -55124,7 +55041,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15">
+    <row r="6" spans="1:22">
       <c r="A6" s="18">
         <v>45350</v>
       </c>
@@ -55211,20 +55128,20 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -55438,13 +55355,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6328125" customWidth="1"/>
+    <col min="8" max="8" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -55598,7 +55515,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="42.75">
+    <row r="5" spans="1:14" ht="43.5">
       <c r="A5" s="39" t="s">
         <v>1491</v>
       </c>
@@ -55609,7 +55526,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15">
+    <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
         <v>1287</v>
       </c>
@@ -55651,15 +55568,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.75" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -55846,7 +55763,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15">
+    <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
         <v>1287</v>
       </c>
@@ -55882,24 +55799,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="31.75" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="37.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.75" customWidth="1"/>
-    <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -56103,7 +56020,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" ht="57">
+    <row r="5" spans="1:17" ht="43.5">
       <c r="C5" s="32" t="s">
         <v>1537</v>
       </c>
@@ -56114,7 +56031,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15">
+    <row r="6" spans="1:17">
       <c r="A6" s="7" t="s">
         <v>1287</v>
       </c>
